--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P36_trail0 Features.xlsx
@@ -5494,7 +5494,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5505,29 +5505,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5548,115 +5546,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -5673,72 +5661,66 @@
         <v>4.601995926799388e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.303080905178856</v>
+        <v>3.130642612925932e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>12.41390660425758</v>
+        <v>1.767918497074795e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.130642612925932e-06</v>
+        <v>-0.1134999091460296</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.767918497074795e-06</v>
+        <v>0.3115495091812386</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1134999091460296</v>
+        <v>0.1096743176095119</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3115495091812386</v>
+        <v>1.749662616702421</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.1096743176095119</v>
+        <v>1.304510036133093</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.793683366549328</v>
+        <v>17.71050414981186</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.304510036133093</v>
+        <v>7.723475232041084e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>17.71050414981186</v>
+        <v>1397916004.38772</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>7.723475232041084e-16</v>
+        <v>7.812044441755943e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1397916004.38772</v>
+        <v>1509.297707035838</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>7.812044441755943e-08</v>
+        <v>3.007561122975539e-05</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1509.297707035838</v>
+        <v>10.60103118790862</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>3.007561122975539e-05</v>
+        <v>1.148733485926322</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.60103118790862</v>
+        <v>0.003379953198217032</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.148733485926322</v>
+        <v>7.468189469816442</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.003379953198217032</v>
+        <v>0.9632975391396011</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>7.468189469816442</v>
+        <v>0.9138393450024472</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9632975391396011</v>
+        <v>3</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.9138393450024472</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>7.812046294849898</v>
       </c>
     </row>
@@ -5753,72 +5735,66 @@
         <v>3.474627249877637e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.862323618911971</v>
+        <v>2.326349736458371e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>10.02451158765297</v>
+        <v>1.722804582144042e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.326349736458371e-06</v>
+        <v>-0.1117029820252882</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.722804582144042e-06</v>
+        <v>0.2966685164660326</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1117029820252882</v>
+        <v>0.1002370708414243</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2966685164660326</v>
+        <v>1.749457304812213</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1002370708414243</v>
+        <v>1.313954838111683</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.800052350112637</v>
+        <v>18.32418046670235</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.313954838111683</v>
+        <v>7.214819753856091e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>18.32418046670235</v>
+        <v>1496378770.681471</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>7.214819753856091e-16</v>
+        <v>7.29782229069592e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>1496378770.681471</v>
+        <v>1615.50595058232</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>7.29782229069592e-08</v>
+        <v>2.354098724541438e-05</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1615.50595058232</v>
+        <v>10.90129463503507</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>2.354098724541438e-05</v>
+        <v>1.110222558832337</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>10.90129463503507</v>
+        <v>0.002797569132397543</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.110222558832337</v>
+        <v>7.698326449476786</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.002797569132397543</v>
+        <v>0.963347527434352</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>7.698326449476786</v>
+        <v>0.7852676787616779</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.963347527434352</v>
+        <v>3</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.7852676787616779</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>8.440893078289051</v>
       </c>
     </row>
@@ -5833,72 +5809,66 @@
         <v>2.719471472175636e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.252221434883406</v>
+        <v>1.747470580434593e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>6.923721076797019</v>
+        <v>1.689124076619937e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.747470580434593e-06</v>
+        <v>-0.107199959990742</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.689124076619937e-06</v>
+        <v>0.2734845083966038</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.107199959990742</v>
+        <v>0.08607659191552385</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2734845083966038</v>
+        <v>1.745015046359317</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.08607659191552385</v>
+        <v>1.313705956940199</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.796308267653288</v>
+        <v>18.08520637177997</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.313705956940199</v>
+        <v>7.406749698702825e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>18.08520637177997</v>
+        <v>1457301906.037779</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>7.406749698702825e-16</v>
+        <v>7.493131541259054e-08</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>1457301906.037779</v>
+        <v>1572.992798535849</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>7.493131541259054e-08</v>
+        <v>2.043333874810068e-05</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1572.992798535849</v>
+        <v>10.70200138862126</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>2.043333874810068e-05</v>
+        <v>1.154347704444003</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.70200138862126</v>
+        <v>0.002340288189222565</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.154347704444003</v>
+        <v>7.910718644464525</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.002340288189222565</v>
+        <v>0.9622236625334271</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>7.910718644464525</v>
+        <v>0.81525353905519</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9622236625334271</v>
+        <v>3</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.81525353905519</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>8.745560922907391</v>
       </c>
     </row>
@@ -5913,72 +5883,66 @@
         <v>2.232614193909848e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>1.567514535693388</v>
+        <v>1.336548463679203e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>3.786946786601041</v>
+        <v>1.663627476818557e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.336548463679203e-06</v>
+        <v>-0.09983169976692312</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.663627476818557e-06</v>
+        <v>0.2462009127035033</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.09983169976692312</v>
+        <v>0.07043106405545123</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.2462009127035033</v>
+        <v>1.74232149512597</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.07043106405545123</v>
+        <v>1.315639707873364</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.792428544082759</v>
+        <v>17.96495319086339</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.315639707873364</v>
+        <v>7.506239657950044e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>17.96495319086339</v>
+        <v>1437779717.557782</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.506239657950044e-16</v>
+        <v>7.594648902408751e-08</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>1437779717.557782</v>
+        <v>1551.697755818597</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.594648902408751e-08</v>
+        <v>2.83418256271409e-05</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1551.697755818597</v>
+        <v>10.73599085549394</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.83418256271409e-05</v>
+        <v>1.430829355941938</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>10.73599085549394</v>
+        <v>0.003266721324581792</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.430829355941938</v>
+        <v>7.78293079470975</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.003266721324581792</v>
+        <v>0.9623638737404656</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>7.78293079470975</v>
+        <v>0.8016549278344969</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9623638737404656</v>
+        <v>3</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.8016549278344969</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>8.29350962756517</v>
       </c>
     </row>
@@ -5993,72 +5957,66 @@
         <v>1.928230052657805e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.9491478396098902</v>
+        <v>1.048255573164204e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.275124219375987</v>
+        <v>1.643918066138421e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.048255573164204e-06</v>
+        <v>-0.09036752594627695</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.643918066138421e-06</v>
+        <v>0.2208129586247721</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.09036752594627695</v>
+        <v>0.05682206927222963</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.2208129586247721</v>
+        <v>1.726670840481473</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.05682206927222963</v>
+        <v>1.317899455040649</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.767077634779914</v>
+        <v>18.35917327337728</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.317899455040649</v>
+        <v>7.187342896733766e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>18.35917327337728</v>
+        <v>1501576833.962626</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.187342896733766e-16</v>
+        <v>7.271888523595714e-08</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1501576833.962626</v>
+        <v>1620.55391274406</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>7.271888523595714e-08</v>
+        <v>3.249408155654855e-05</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1620.55391274406</v>
+        <v>9.949070204356467</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>3.249408155654855e-05</v>
+        <v>1.341970198560071</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.949070204356467</v>
+        <v>0.003216394101570088</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.341970198560071</v>
+        <v>7.494594595120471</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.003216394101570088</v>
+        <v>0.9592654651237194</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>7.494594595120471</v>
+        <v>0.9157445591603331</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9592654651237194</v>
+        <v>4</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.9157445591603331</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>7.669963237814422</v>
       </c>
     </row>
@@ -6073,72 +6031,66 @@
         <v>1.745457283970367e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.5144546748981448</v>
+        <v>8.369751067052865e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.2761449550809036</v>
+        <v>1.628379206703727e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.369751067052865e-07</v>
+        <v>-0.07934452198308189</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.628379206703727e-06</v>
+        <v>0.1963098573529572</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.07934452198308189</v>
+        <v>0.0447628431662763</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1963098573529572</v>
+        <v>1.717405043821351</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.0447628431662763</v>
+        <v>1.31933578982274</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.752949494993678</v>
+        <v>17.8734071671338</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.31933578982274</v>
+        <v>7.583329178756181e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>17.8734071671338</v>
+        <v>1423138561.382101</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.583329178756181e-16</v>
+        <v>7.672323055814513e-08</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1423138561.382101</v>
+        <v>1535.869376940759</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>7.672323055814513e-08</v>
+        <v>3.238016263527252e-05</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1535.869376940759</v>
+        <v>9.840432376257539</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>3.238016263527252e-05</v>
+        <v>1.244473665660824</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.840432376257539</v>
+        <v>0.003135504209449731</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.244473665660824</v>
+        <v>7.418683331886438</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.003135504209449731</v>
+        <v>0.9591147718275307</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>7.418683331886438</v>
+        <v>0.9095346498685463</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9591147718275307</v>
+        <v>4</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.9095346498685463</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>7.575310884758478</v>
       </c>
     </row>
@@ -6153,72 +6105,66 @@
         <v>1.643759804787613e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.2966131605314472</v>
+        <v>6.784442172862484e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-0.9533616820956516</v>
+        <v>1.615938811380213e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>6.784442172862484e-07</v>
+        <v>-0.06800825211858939</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.615938811380213e-06</v>
+        <v>0.1740154838598943</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.06800825211858939</v>
+        <v>0.03486241674702942</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1740154838598943</v>
+        <v>1.709350149933319</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03486241674702942</v>
+        <v>1.313605831728341</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.738207557489148</v>
+        <v>17.74960144661306</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.313605831728341</v>
+        <v>7.689487490861906e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>17.74960144661306</v>
+        <v>1403157739.953036</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>7.689487490861906e-16</v>
+        <v>7.781185718148439e-08</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1403157739.953036</v>
+        <v>1513.946008167328</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>7.781185718148439e-08</v>
+        <v>3.732724847863306e-05</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>1513.946008167328</v>
+        <v>10.16029163207707</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>3.732724847863306e-05</v>
+        <v>1.181404499479207</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.16029163207707</v>
+        <v>0.003853348823654108</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.181404499479207</v>
+        <v>7.171855356070941</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.003853348823654108</v>
+        <v>0.9590910837949151</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>7.171855356070941</v>
+        <v>0.9570455457098916</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9590910837949151</v>
+        <v>5</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.9570455457098916</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>7.128822910823445</v>
       </c>
     </row>
@@ -6233,72 +6179,66 @@
         <v>1.592782101681819e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2370063853317929</v>
+        <v>5.611590362825984e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.134689470067552</v>
+        <v>1.605809811484995e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>5.611590362825984e-07</v>
+        <v>-0.05769770604975225</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.605809811484995e-06</v>
+        <v>0.1572164933052378</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05769770604975225</v>
+        <v>0.02802110932719586</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1572164933052378</v>
+        <v>1.703897752968023</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02802110932719586</v>
+        <v>1.305647427340013</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.728437911514561</v>
+        <v>18.19174078881089</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.305647427340013</v>
+        <v>7.320252943422558e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>18.19174078881089</v>
+        <v>1473550617.416177</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>7.320252943422558e-16</v>
+        <v>7.409243101542504e-08</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>1473550617.416177</v>
+        <v>1589.484163874149</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.409243101542504e-08</v>
+        <v>5.333254012091841e-05</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1589.484163874149</v>
+        <v>10.35333377668756</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>5.333254012091841e-05</v>
+        <v>1.118623214122329</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.35333377668756</v>
+        <v>0.00571679605656864</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.118623214122329</v>
+        <v>6.440860767855659</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.00571679605656864</v>
+        <v>0.9575853215759532</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>6.440860767855659</v>
+        <v>0.9113009272228738</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9575853215759532</v>
+        <v>5</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.9113009272228738</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>5.777639435684185</v>
       </c>
     </row>
@@ -6313,72 +6253,66 @@
         <v>1.570639428148522e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.2584729030140375</v>
+        <v>5.110075629066543e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.129984477575215</v>
+        <v>1.597396588443049e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>5.110075629066543e-07</v>
+        <v>-0.04915060995129651</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.597396588443049e-06</v>
+        <v>0.146962252688458</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04915060995129651</v>
+        <v>0.024001177790036</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.146962252688458</v>
+        <v>1.699229357732729</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.024001177790036</v>
+        <v>1.300555572255669</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.719016602819835</v>
+        <v>18.78782937795087</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.300555572255669</v>
+        <v>6.863116821135525e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>18.78782937795087</v>
+        <v>1571158202.833525</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.863116821135525e-16</v>
+        <v>6.948518594042905e-08</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1571158202.833525</v>
+        <v>1694.186534626989</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>6.948518594042905e-08</v>
+        <v>8.976068754726825e-05</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>1694.186534626989</v>
+        <v>9.943103970078059</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>8.976068754726825e-05</v>
+        <v>1.112412887592872</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.943103970078059</v>
+        <v>0.008874218788984362</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.112412887592872</v>
+        <v>4.97446326235939</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.008874218788984362</v>
+        <v>0.9560966916426497</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>4.97446326235939</v>
+        <v>0.9037661779218557</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9560966916426497</v>
+        <v>5</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.9037661779218557</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>3.294737936780147</v>
       </c>
     </row>
@@ -6393,72 +6327,66 @@
         <v>1.56289905053662e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.3116380938579286</v>
+        <v>5.110075629066543e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.079461293440754</v>
+        <v>1.590244964393616e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>5.110075629066543e-07</v>
+        <v>-0.04252267679040223</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.590244964393616e-06</v>
+        <v>0.1423242511724488</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.04252267679040223</v>
+        <v>0.02205915747761811</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.1423242511724488</v>
+        <v>1.690330900628031</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.02205915747761811</v>
+        <v>1.293161258020039</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.70735721202505</v>
+        <v>19.22804885974197</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.293161258020039</v>
+        <v>6.552456888703216e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>19.22804885974197</v>
+        <v>1644628118.504564</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>6.552456888703216e-16</v>
+        <v>6.637073676286268e-08</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1644628118.504564</v>
+        <v>1772.309619216575</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.637073676286268e-08</v>
+        <v>0.0001365039291690446</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>1772.309619216575</v>
+        <v>8.71633012744029</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001365039291690446</v>
+        <v>1.24763180475907</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>8.71633012744029</v>
+        <v>0.01037080560285988</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.24763180475907</v>
+        <v>3.425475005748564</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01037080560285988</v>
+        <v>0.9551973147686136</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.425475005748564</v>
+        <v>0.9017305918523394</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9551973147686136</v>
+        <v>5</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.9017305918523394</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.8555699106696162</v>
       </c>
     </row>
@@ -6473,72 +6401,66 @@
         <v>1.560387546136076e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.3752777413009663</v>
+        <v>5.110075629066543e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.02157662570918</v>
+        <v>1.584001203128544e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>5.110075629066543e-07</v>
+        <v>-0.03776650307131149</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.584001203128544e-06</v>
+        <v>0.1416372000986227</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.03776650307131149</v>
+        <v>0.02148581136808726</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.1416372000986227</v>
+        <v>1.686040629172745</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.02148581136808726</v>
+        <v>1.286248654396982</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.702267983600633</v>
+        <v>20.07380489769733</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.286248654396982</v>
+        <v>6.011947904794562e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>20.07380489769733</v>
+        <v>1792009345.551915</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>6.011947904794562e-16</v>
+        <v>6.091001474583351e-08</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1792009345.551915</v>
+        <v>1930.615324400427</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>6.091001474583351e-08</v>
+        <v>0.0001661845817049235</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>1930.615324400427</v>
+        <v>8.121009707802926</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001661845817049235</v>
+        <v>1.511821299488249</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.121009707802926</v>
+        <v>0.01096000589078243</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.511821299488249</v>
+        <v>2.88718621198969</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01096000589078243</v>
+        <v>0.9553591226276518</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.88718621198969</v>
+        <v>0.9253892629622669</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9553591226276518</v>
+        <v>5</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.9253892629622669</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1816282673675591</v>
       </c>
     </row>
@@ -6553,72 +6475,66 @@
         <v>1.557092832323006e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.4433552848117224</v>
+        <v>5.110075629066543e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.9552666927241162</v>
+        <v>1.578361429277865e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>5.110075629066543e-07</v>
+        <v>-0.0348715521331049</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.578361429277865e-06</v>
+        <v>0.1431522241902333</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.0348715521331049</v>
+        <v>0.02170751405731755</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.1431522241902333</v>
+        <v>1.780576484421879</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.02170751405731755</v>
+        <v>1.65173392235536</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.715029539542016</v>
+        <v>4.757488805967331</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.65173392235536</v>
+        <v>4.517905332673323e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.757488805967331</v>
+        <v>164620092.7693065</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>4.517905332673323e-16</v>
+        <v>7.033003431524583e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>164620092.7693065</v>
+        <v>12.24342177309212</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>7.033003431524583e-07</v>
+        <v>0.0001862883826771768</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>12.24342177309212</v>
+        <v>9.252257968957599</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001862883826771768</v>
+        <v>1.406929389315844</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.252257968957599</v>
+        <v>0.01594708241022012</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.406929389315844</v>
+        <v>2.727861848015777</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01594708241022012</v>
+        <v>0.9541326832255507</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.727861848015777</v>
+        <v>1.709421860158405</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9541326832255507</v>
+        <v>2</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.709421860158405</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1509482958819849</v>
       </c>
     </row>
@@ -6633,72 +6549,66 @@
         <v>1.548109295472538e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.5151970592514655</v>
+        <v>5.110075629066543e-07</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.8663607170601648</v>
+        <v>1.57304970600778e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>5.110075629066543e-07</v>
+        <v>-0.03377715843146239</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.57304970600778e-06</v>
+        <v>0.1453313370513541</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.03377715843146239</v>
+        <v>0.02225781205713209</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.1453313370513541</v>
+        <v>1.737840891051984</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.02225781205713209</v>
+        <v>1.536217828921623</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.663061303873097</v>
+        <v>5.230989912667891</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.536217828921623</v>
+        <v>7.167325822099116e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.230989912667891</v>
+        <v>103723253.8429286</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>7.167325822099116e-16</v>
+        <v>1.104769682891112e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>103723253.8429286</v>
+        <v>7.710977081152433</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>1.104769682891112e-06</v>
+        <v>0.0001882027956965763</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>7.710977081152433</v>
+        <v>10.85143045199712</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001882027956965763</v>
+        <v>1.164975479659645</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.85143045199712</v>
+        <v>0.02216154596839924</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.164975479659645</v>
+        <v>2.586191053911349</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.02216154596839924</v>
+        <v>0.9522713523104885</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.586191053911349</v>
+        <v>1.734884645671262</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9522713523104885</v>
+        <v>2</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.734884645671262</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1499609863272775</v>
       </c>
     </row>
@@ -6713,72 +6623,66 @@
         <v>1.527759657442915e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.5877567734514074</v>
+        <v>5.110075629066543e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.7389068417586406</v>
+        <v>1.567825979973899e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5.110075629066543e-07</v>
+        <v>-0.03417589146635427</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.567825979973899e-06</v>
+        <v>0.1473297525255466</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.03417589146635427</v>
+        <v>0.02286327680335248</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.1473297525255466</v>
+        <v>1.697941877598323</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.02286327680335248</v>
+        <v>1.41314388879693</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.615921619483989</v>
+        <v>5.044299422245135</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.41314388879693</v>
+        <v>1.376492823548282e-15</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.044299422245135</v>
+        <v>55899657.59313954</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.376492823548282e-15</v>
+        <v>2.038686741472365e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>55899657.59313954</v>
+        <v>4.301225846471758</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>2.038686741472365e-06</v>
+        <v>0.0001747523719445999</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>4.301225846471758</v>
+        <v>11.55464614757822</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001747523719445999</v>
+        <v>1.051619104516274</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>11.55464614757822</v>
+        <v>0.02333116254531833</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.051619104516274</v>
+        <v>2.571292232429246</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02333116254531833</v>
+        <v>0.948103443136181</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.571292232429246</v>
+        <v>1.752836920882515</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.948103443136181</v>
+        <v>2</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.752836920882515</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1573340632873211</v>
       </c>
     </row>
@@ -6793,72 +6697,66 @@
         <v>1.490411125933467e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.6457006236187252</v>
+        <v>5.110075629066543e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.5816315104780605</v>
+        <v>1.56263545823412e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>5.110075629066543e-07</v>
+        <v>-0.03411535431142233</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.56263545823412e-06</v>
+        <v>0.1532824928452041</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.03411535431142233</v>
+        <v>0.02464305289211267</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.1532824928452041</v>
+        <v>1.656323495698927</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.02464305289211267</v>
+        <v>1.327069180003862</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.567806181741556</v>
+        <v>4.751496441753907</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.327069180003862</v>
+        <v>2.765339646573534e-15</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.751496441753907</v>
+        <v>29758198.88591556</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>2.765339646573534e-15</v>
+        <v>3.835469278548576e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>29758198.88591556</v>
+        <v>2.448847632741065</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.835469278548576e-06</v>
+        <v>0.0001738736248951358</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>2.448847632741065</v>
+        <v>11.37609804873203</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001738736248951358</v>
+        <v>1.10919612506481</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>11.37609804873203</v>
+        <v>0.02250196067481721</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.10919612506481</v>
+        <v>2.645905395948679</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.02250196067481721</v>
+        <v>0.9414554173390518</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.645905395948679</v>
+        <v>1.783082691295404</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9414554173390518</v>
+        <v>2</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.783082691295404</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1501091078599319</v>
       </c>
     </row>
@@ -6873,72 +6771,66 @@
         <v>1.436719501029741e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.6591445101572124</v>
+        <v>5.110075629066543e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.4635188666644283</v>
+        <v>1.557853256482882e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>5.110075629066543e-07</v>
+        <v>-0.03013728971772124</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.557853256482882e-06</v>
+        <v>0.1717486026459357</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.03013728971772124</v>
+        <v>0.03038017945885237</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.1717486026459357</v>
+        <v>1.599629233519843</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.03038017945885237</v>
+        <v>1.27478958744661</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.50508353576557</v>
+        <v>4.205312900436642</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.27478958744661</v>
+        <v>5.410956081111423e-15</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.205312900436642</v>
+        <v>15520334.3171401</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>5.410956081111423e-15</v>
+        <v>7.254804053347944e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>15520334.3171401</v>
+        <v>1.303395306839757</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>7.254804053347944e-06</v>
+        <v>0.000208529094341084</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>1.303395306839757</v>
+        <v>11.69974652353119</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.000208529094341084</v>
+        <v>1.177662887786913</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>11.69974652353119</v>
+        <v>0.02854431087883668</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.177662887786913</v>
+        <v>2.490951790264017</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.02854431087883668</v>
+        <v>0.9353734876807511</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.490951790264017</v>
+        <v>1.833106234714934</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9353734876807511</v>
+        <v>2</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.833106234714934</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1269777189071855</v>
       </c>
     </row>
@@ -6953,72 +6845,66 @@
         <v>1.380024466224172e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.6064973158927428</v>
+        <v>5.107648349522719e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.4917131101032548</v>
+        <v>1.554230259481698e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>5.107648349522719e-07</v>
+        <v>-0.02029974143912388</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.554230259481698e-06</v>
+        <v>0.2025439041912497</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.02029974143912388</v>
+        <v>0.04139942342633617</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2025439041912497</v>
+        <v>1.541993259742769</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.04139942342633617</v>
+        <v>1.195320023677686</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.568995058055658</v>
+        <v>17.13109344130871</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.195320023677686</v>
+        <v>7.638978134330646e-15</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>17.13109344130871</v>
+        <v>389191246.7593014</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>7.638978134330646e-15</v>
+        <v>2.745801984581125e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>389191246.7593014</v>
+        <v>1157.074693057316</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.745801984581125e-07</v>
+        <v>0.0002281319447038609</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>1157.074693057316</v>
+        <v>13.06744390267758</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0002281319447038609</v>
+        <v>1.020094202702071</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>13.06744390267758</v>
+        <v>0.03895537517975124</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.020094202702071</v>
+        <v>2.176030567419862</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.03895537517975124</v>
+        <v>0.9298373784079248</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.176030567419862</v>
+        <v>0.8222963458369933</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9298373784079248</v>
+        <v>4</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>0.8222963458369933</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1288186430127419</v>
       </c>
     </row>
@@ -7033,72 +6919,66 @@
         <v>1.342136031558152e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.5257252583999975</v>
+        <v>5.014121485599572e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.6593140784438534</v>
+        <v>1.552325027623622e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>5.014121485599572e-07</v>
+        <v>-0.007511282380294151</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.552325027623622e-06</v>
+        <v>0.2293968215976694</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.007511282380294151</v>
+        <v>0.05265009410890243</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2293968215976694</v>
+        <v>1.488550615662573</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.05265009410890243</v>
+        <v>1.20470467603086</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.498439741732879</v>
+        <v>14.09304747228846</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.20470467603086</v>
+        <v>1.128744390721435e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>14.09304747228846</v>
+        <v>263497120.0920339</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.128744390721435e-14</v>
+        <v>4.054357386720853e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>263497120.0920339</v>
+        <v>783.695496236898</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>4.054357386720853e-07</v>
+        <v>0.0002015160992209109</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>783.695496236898</v>
+        <v>10.81917121265982</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0002015160992209109</v>
+        <v>1.280948800367214</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>10.81917121265982</v>
+        <v>0.02358835933006503</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.280948800367214</v>
+        <v>2.989509523743142</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.02358835933006503</v>
+        <v>0.9231499478906218</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.989509523743142</v>
+        <v>1.011263350853981</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9231499478906218</v>
+        <v>5</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.011263350853981</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.6631600445959538</v>
       </c>
     </row>
@@ -7113,72 +6993,66 @@
         <v>1.337726822715892e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.5136792278753054</v>
+        <v>5.164007911818936e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.6889675356191418</v>
+        <v>1.552120502718109e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>5.164007911818936e-07</v>
+        <v>0.004154417420119135</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.552120502718109e-06</v>
+        <v>0.2410004635829372</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0.004154417420119135</v>
+        <v>0.05808182665315651</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2410004635829372</v>
+        <v>1.476736262071469</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.05808182665315651</v>
+        <v>1.209984822945353</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.483370123481595</v>
+        <v>11.38158857789067</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.209984822945353</v>
+        <v>1.730611835450144e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>11.38158857789067</v>
+        <v>171876173.6139646</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1.730611835450144e-14</v>
+        <v>6.215322079452653e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>171876173.6139646</v>
+        <v>511.2472945461353</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>6.215322079452653e-07</v>
+        <v>0.0001718709310503967</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>511.2472945461353</v>
+        <v>8.915700308839087</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001718709310503967</v>
+        <v>1.732533681426103</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.915700308839087</v>
+        <v>0.01366197080985802</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.732533681426103</v>
+        <v>3.785285085027654</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01366197080985802</v>
+        <v>0.920130883614105</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.785285085027654</v>
+        <v>1.045430829128077</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.920130883614105</v>
+        <v>5</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.045430829128077</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>1.39483373283777</v>
       </c>
     </row>
@@ -7193,72 +7067,66 @@
         <v>1.368423930590254e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.6176543365842041</v>
+        <v>5.733490365158686e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.3655449337558818</v>
+        <v>1.553354750128552e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>5.733490365158686e-07</v>
+        <v>0.01385364600564857</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.553354750128552e-06</v>
+        <v>0.2402669671748984</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>0.01385364600564857</v>
+        <v>0.05790842314204139</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2402669671748984</v>
+        <v>1.459504513933225</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.05790842314204139</v>
+        <v>1.221076554227414</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.463634079716207</v>
+        <v>10.84489837987886</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.221076554227414</v>
+        <v>1.906138533952882e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>10.84489837987886</v>
+        <v>156070125.9994997</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>1.906138533952882e-14</v>
+        <v>6.844160531622728e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>156070125.9994997</v>
+        <v>464.2950173541261</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>6.844160531622728e-07</v>
+        <v>0.0001295641723439433</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>464.2950173541261</v>
+        <v>9.095536817890185</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001295641723439433</v>
+        <v>1.338790381091198</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>9.095536817890185</v>
+        <v>0.01071868720609092</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.338790381091198</v>
+        <v>4.087199420986204</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01071868720609092</v>
+        <v>0.9099913069270346</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>4.087199420986204</v>
+        <v>1.024801332062345</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9099913069270346</v>
+        <v>4</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.024801332062345</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>1.841089710265255</v>
       </c>
     </row>
@@ -7273,72 +7141,66 @@
         <v>1.431551364156799e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.8075482992990154</v>
+        <v>6.251007083768769e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>0.2187345758591275</v>
+        <v>1.555899909161101e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>6.251007083768769e-07</v>
+        <v>0.02240800692254116</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.555899909161101e-06</v>
+        <v>0.2323974575245779</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0.02240800692254116</v>
+        <v>0.05449925642141526</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2323974575245779</v>
+        <v>1.449410035146402</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.05449925642141526</v>
+        <v>1.227111791061861</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.448645600662209</v>
+        <v>10.86415050198542</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.227111791061861</v>
+        <v>1.899388867397713e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>10.86415050198542</v>
+        <v>156638484.0963385</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1.899388867397713e-14</v>
+        <v>6.819186883309435e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>156638484.0963385</v>
+        <v>466.0267341593755</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>6.819186883309435e-07</v>
+        <v>0.0001225081425517703</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>466.0267341593755</v>
+        <v>9.973960880679993</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001225081425517703</v>
+        <v>1.144617057181508</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.973960880679993</v>
+        <v>0.01218709723724395</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.144617057181508</v>
+        <v>3.981701680727586</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01218709723724395</v>
+        <v>0.9055172698311289</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.981701680727586</v>
+        <v>1.077122344244672</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9055172698311289</v>
+        <v>5</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.077122344244672</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>1.984335999466833</v>
       </c>
     </row>
@@ -7353,72 +7215,66 @@
         <v>1.525562313526917e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1.029087024531504</v>
+        <v>6.794846136943667e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.8575889440909648</v>
+        <v>1.559801177737086e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>6.794846136943667e-07</v>
+        <v>0.03015972438023871</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.559801177737086e-06</v>
+        <v>0.220445515249247</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>0.03015972438023871</v>
+        <v>0.04949568927499674</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.220445515249247</v>
+        <v>1.431925349800617</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.04949568927499674</v>
+        <v>1.229028144703418</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.430213900925193</v>
+        <v>10.80881747270187</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.229028144703418</v>
+        <v>1.918885533691509e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>10.80881747270187</v>
+        <v>155078830.9068491</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>1.918885533691509e-14</v>
+        <v>6.887107609654402e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>155078830.9068491</v>
+        <v>461.481297923874</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>6.887107609654402e-07</v>
+        <v>0.0001298699580891294</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>461.481297923874</v>
+        <v>10.08400743676052</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001298699580891294</v>
+        <v>1.164076640367623</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.08400743676052</v>
+        <v>0.01320611317942607</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.164076640367623</v>
+        <v>3.730958143239235</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01320611317942607</v>
+        <v>0.9063801483595157</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.730958143239235</v>
+        <v>1.090530717892488</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9063801483595157</v>
+        <v>5</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.090530717892488</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>1.761020211052738</v>
       </c>
     </row>
@@ -7433,72 +7289,66 @@
         <v>1.645598204039064e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>1.224581553600653</v>
+        <v>7.255683338518357e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.34245158709299</v>
+        <v>1.565057394341943e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>7.255683338518357e-07</v>
+        <v>0.03571138511154457</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.565057394341943e-06</v>
+        <v>0.2049685587938604</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0.03571138511154457</v>
+        <v>0.04328154413534671</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2049685587938604</v>
+        <v>1.429739355411927</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.04328154413534671</v>
+        <v>1.230464520499351</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.425264371403546</v>
+        <v>10.34641757441401</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.230464520499351</v>
+        <v>2.094235081026153e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>10.34641757441401</v>
+        <v>142105937.8911611</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>2.094235081026153e-14</v>
+        <v>7.515744411969475e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>142105937.8911611</v>
+        <v>422.9118758992446</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>7.515744411969475e-07</v>
+        <v>0.0001311104084527284</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>422.9118758992446</v>
+        <v>9.112077928307583</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001311104084527284</v>
+        <v>1.205236484217317</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.112077928307583</v>
+        <v>0.01088609251634735</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.205236484217317</v>
+        <v>3.643494128507565</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01088609251634735</v>
+        <v>0.9026302207808787</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.643494128507565</v>
+        <v>1.05946817336341</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9026302207808787</v>
+        <v>5</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.05946817336341</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>1.411955473783368</v>
       </c>
     </row>
@@ -7513,72 +7363,66 @@
         <v>1.781229451669249e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.353118221499041</v>
+        <v>7.615877237702122e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1.545661040076601</v>
+        <v>1.57149838951656e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>7.615877237702122e-07</v>
+        <v>0.03925574381943203</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.57149838951656e-06</v>
+        <v>0.1886367673935674</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0.03925574381943203</v>
+        <v>0.03712056350774704</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1886367673935674</v>
+        <v>1.415746201264377</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.03712056350774704</v>
+        <v>1.232780917903616</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.407843220870428</v>
+        <v>10.24683668838868</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.232780917903616</v>
+        <v>2.13513729053745e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>10.24683668838868</v>
+        <v>139405806.0658284</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>2.13513729053745e-14</v>
+        <v>7.660804449847823e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>139405806.0658284</v>
+        <v>414.9421276437272</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>7.660804449847823e-07</v>
+        <v>0.0001310654286952394</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>414.9421276437272</v>
+        <v>7.501974763136562</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001310654286952394</v>
+        <v>1.567069977827344</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>7.501974763136562</v>
+        <v>0.007376313222877661</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.567069977827344</v>
+        <v>3.708279192419719</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.007376313222877661</v>
+        <v>0.897900472458716</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.708279192419719</v>
+        <v>1.044901229392605</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.897900472458716</v>
+        <v>6</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.044901229392605</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>1.161808161649774</v>
       </c>
     </row>
@@ -7593,72 +7437,66 @@
         <v>1.926552050288587e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>1.417902707028617</v>
+        <v>7.998256191897631e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1.525316690063149</v>
+        <v>1.579056711774702e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>7.998256191897631e-07</v>
+        <v>0.04226770782731372</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.579056711774702e-06</v>
+        <v>0.1737312501103674</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0.04226770782731372</v>
+        <v>0.03196464840082792</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1737312501103674</v>
+        <v>1.411216255596559</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.03196464840082792</v>
+        <v>1.23685005294634</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.400612431414638</v>
+        <v>10.21615105361318</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.23685005294634</v>
+        <v>2.147982918805774e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>10.21615105361318</v>
+        <v>138601547.9072173</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>2.147982918805774e-14</v>
+        <v>7.70493310681921e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>138601547.9072173</v>
+        <v>412.6358761234317</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>7.70493310681921e-07</v>
+        <v>0.0001211418525529632</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>412.6358761234317</v>
+        <v>7.517939740850001</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001211418525529632</v>
+        <v>1.553636179020434</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>7.517939740850001</v>
+        <v>0.00684686699532105</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.553636179020434</v>
+        <v>3.931033295833096</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.00684686699532105</v>
+        <v>0.8959734463436844</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.931033295833096</v>
+        <v>1.105355130270876</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.8959734463436844</v>
+        <v>6</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.105355130270876</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>1.398935259345745</v>
       </c>
     </row>
@@ -7673,72 +7511,66 @@
         <v>2.080203326557405e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>1.438121974509466</v>
+        <v>8.369902577913087e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1.38518892964802</v>
+        <v>1.587782921135432e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>8.369902577913087e-07</v>
+        <v>0.04454645380642749</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.587782921135432e-06</v>
+        <v>0.1600626398078689</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0.04454645380642749</v>
+        <v>0.02760214755184429</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1600626398078689</v>
+        <v>1.378465760811075</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.02760214755184429</v>
+        <v>1.24510544394724</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.3639899245483</v>
+        <v>9.784257276857961</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.24510544394724</v>
+        <v>2.341799489091242e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>9.784257276857961</v>
+        <v>127176787.7310732</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>2.341799489091242e-14</v>
+        <v>8.39482836569793e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>127176787.7310732</v>
+        <v>378.7611351017347</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>8.39482836569793e-07</v>
+        <v>0.0001118310586021062</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>378.7611351017347</v>
+        <v>9.007573727585205</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0001118310586021062</v>
+        <v>1.151544821936628</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.007573727585205</v>
+        <v>0.00907356776507256</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.151544821936628</v>
+        <v>3.955650537466357</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.00907356776507256</v>
+        <v>0.8866484368907813</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.955650537466357</v>
+        <v>1.194687268913489</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.8866484368907813</v>
+        <v>7</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.194687268913489</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>1.759391092034671</v>
       </c>
     </row>
@@ -7753,72 +7585,66 @@
         <v>2.233635860076567e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>1.418348718163754</v>
+        <v>8.520765675117257e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1.146193751646589</v>
+        <v>1.59746102414181e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>8.520765675117257e-07</v>
+        <v>0.04481625240043132</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.59746102414181e-06</v>
+        <v>0.1474258008580691</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0.04481625240043132</v>
+        <v>0.02374199914001117</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1474258008580691</v>
+        <v>1.378734708785599</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.02374199914001117</v>
+        <v>1.244574225523653</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.364678586789104</v>
+        <v>9.001345134351013</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.244574225523653</v>
+        <v>2.766881801265567e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>9.001345134351013</v>
+        <v>107644852.2630907</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>2.766881801265567e-14</v>
+        <v>9.917960127381235e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>107644852.2630907</v>
+        <v>320.6100552556481</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>9.917960127381235e-07</v>
+        <v>0.0001134107067335081</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>320.6100552556481</v>
+        <v>8.79635093173556</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001134107067335081</v>
+        <v>1.174680800396773</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>8.79635093173556</v>
+        <v>0.008775242995555836</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.174680800396773</v>
+        <v>3.874329094348162</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.008775242995555836</v>
+        <v>0.8848695509798219</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.874329094348162</v>
+        <v>1.151152388256852</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.8848695509798219</v>
+        <v>7</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.151152388256852</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>1.599659693873482</v>
       </c>
     </row>
@@ -7833,72 +7659,66 @@
         <v>2.374785425667237e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>1.36240329700538</v>
+        <v>8.521671537400474e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>0.825495608961671</v>
+        <v>1.607670587593538e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>8.521671537400474e-07</v>
+        <v>0.04354882997979651</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>1.607670587593538e-06</v>
+        <v>0.1374589288611643</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0.04354882997979651</v>
+        <v>0.02079037389229093</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1374589288611643</v>
+        <v>1.376746177098628</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.02079037389229093</v>
+        <v>1.241799650033473</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.361882659782227</v>
+        <v>8.784023347203684</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.241799650033473</v>
+        <v>2.905483891307624e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>8.784023347203684</v>
+        <v>102519235.6705138</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>2.905483891307624e-14</v>
+        <v>1.041352642683995e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>102519235.6705138</v>
+        <v>305.3719843892916</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>1.041352642683995e-06</v>
+        <v>0.0001130263214616036</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>305.3719843892916</v>
+        <v>7.787686865773934</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001130263214616036</v>
+        <v>1.207054581176843</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>7.787686865773934</v>
+        <v>0.006854827885045792</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.207054581176843</v>
+        <v>3.752877664629828</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.006854827885045792</v>
+        <v>0.8809541436822708</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.752877664629828</v>
+        <v>1.160102160090916</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.8809541436822708</v>
+        <v>7</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.160102160090916</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>1.244238802477771</v>
       </c>
     </row>
@@ -7913,72 +7733,66 @@
         <v>2.496486461276381e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>1.281869650180194</v>
+        <v>8.521671537400474e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>0.473432384952333</v>
+        <v>1.618063994710073e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>8.521671537400474e-07</v>
+        <v>0.04167616186234098</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1.618063994710073e-06</v>
+        <v>0.1304855136171327</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0.04167616186234098</v>
+        <v>0.01876192961411761</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1304855136171327</v>
+        <v>1.373497200846517</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01876192961411761</v>
+        <v>1.236784885859557</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.357759846511556</v>
+        <v>9.068826706270952</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.236784885859557</v>
+        <v>2.725858002456907e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>9.068826706270952</v>
+        <v>109281967.9752193</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>2.725858002456907e-14</v>
+        <v>9.768808512645074e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>109281967.9752193</v>
+        <v>325.5369146533871</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>9.768808512645074e-07</v>
+        <v>0.0001154269804296333</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>325.5369146533871</v>
+        <v>7.254196391960734</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001154269804296333</v>
+        <v>1.404477084808124</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>7.254196391960734</v>
+        <v>0.006074156155832268</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.404477084808124</v>
+        <v>3.500681829151503</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.006074156155832268</v>
+        <v>0.8829061580821977</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.500681829151503</v>
+        <v>1.138715956908997</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.8829061580821977</v>
+        <v>7</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.138715956908997</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.7733278857865689</v>
       </c>
     </row>
@@ -7993,72 +7807,66 @@
         <v>2.597125801015155e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1.189186732786971</v>
+        <v>8.521671537400474e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>0.1357533200377539</v>
+        <v>1.628448375480362e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>8.521671537400474e-07</v>
+        <v>0.03981354054187575</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>1.628448375480362e-06</v>
+        <v>0.1257312695503328</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0.03981354054187575</v>
+        <v>0.01739192880403055</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1257312695503328</v>
+        <v>1.377832877123892</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01739192880403055</v>
+        <v>1.227888880775246</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.362000140600238</v>
+        <v>9.836668919025726</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.227888880775246</v>
+        <v>2.316910866054405e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>9.836668919025726</v>
+        <v>128568299.5418935</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>2.316910866054405e-14</v>
+        <v>8.303454381363208e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>128568299.5418935</v>
+        <v>382.9809095134141</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>8.303454381363208e-07</v>
+        <v>0.0001221722932103112</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>382.9809095134141</v>
+        <v>7.255774890820241</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0001221722932103112</v>
+        <v>1.682471345055468</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>7.255774890820241</v>
+        <v>0.006431915445226206</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.682471345055468</v>
+        <v>3.222050563443754</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.006431915445226206</v>
+        <v>0.8897239422073867</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.222050563443754</v>
+        <v>1.145298591465856</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.8897239422073867</v>
+        <v>7</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.145298591465856</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.3440300431852116</v>
       </c>
     </row>
@@ -8073,72 +7881,66 @@
         <v>2.677716019912803e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>1.092974089848601</v>
+        <v>8.521671537400474e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.1640105097932572</v>
+        <v>1.638733166458597e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>8.521671537400474e-07</v>
+        <v>0.03813616498165603</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1.638733166458597e-06</v>
+        <v>0.1225411267201105</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0.03813616498165603</v>
+        <v>0.01646917317355417</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1225411267201105</v>
+        <v>1.387996197111803</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01646917317355417</v>
+        <v>1.222424150934618</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.37190147631861</v>
+        <v>11.80777513141579</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.222424150934618</v>
+        <v>1.594952555984522e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>11.80777513141579</v>
+        <v>186770294.1128816</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.594952555984522e-14</v>
+        <v>5.716078458502834e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>186770294.1128816</v>
+        <v>556.3695771063948</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>5.716078458502834e-07</v>
+        <v>0.0001252928528802335</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>556.3695771063948</v>
+        <v>7.651894765953372</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0001252928528802335</v>
+        <v>1.438574225806837</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>7.651894765953372</v>
+        <v>0.007336083662169224</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.438574225806837</v>
+        <v>2.984545241180382</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.007336083662169224</v>
+        <v>0.8940495113384572</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.984545241180382</v>
+        <v>1.186348663242086</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.8940495113384572</v>
+        <v>7</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.186348663242086</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2162472341640051</v>
       </c>
     </row>
@@ -8153,72 +7955,66 @@
         <v>2.739955598071812e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.9982503643706988</v>
+        <v>8.521671537400474e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.4184526603422336</v>
+        <v>1.648877107610198e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>8.521671537400474e-07</v>
+        <v>0.03674233943160288</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1.648877107610198e-06</v>
+        <v>0.1204017983018328</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0.03674233943160288</v>
+        <v>0.01584523038314297</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1204017983018328</v>
+        <v>1.291064731779324</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.01584523038314297</v>
+        <v>1.447415224701322</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.226755443010372</v>
+        <v>3.522219472890883</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.447415224701322</v>
+        <v>1.088542992880195e-14</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>3.522219472890883</v>
+        <v>19302645.71327799</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1.088542992880195e-14</v>
+        <v>4.356675022385588e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>19302645.71327799</v>
+        <v>4.055825539818127</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>4.356675022385588e-06</v>
+        <v>0.0001165722368441121</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>4.055825539818127</v>
+        <v>6.516720929776473</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001165722368441121</v>
+        <v>1.592170208620166</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>6.516720929776473</v>
+        <v>0.004950549149456326</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.592170208620166</v>
+        <v>3.171941701168665</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.004950549149456326</v>
+        <v>0.9066823140263944</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.171941701168665</v>
+        <v>1.93928586351772</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9066823140263944</v>
+        <v>8</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.93928586351772</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1948360619424512</v>
       </c>
     </row>
@@ -8233,72 +8029,66 @@
         <v>2.785994050173952e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.9078098016796813</v>
+        <v>8.521671537400474e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.6284747865568954</v>
+        <v>1.658869546652797e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>8.521671537400474e-07</v>
+        <v>0.0355375026366517</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>1.658869546652797e-06</v>
+        <v>0.1190802097769428</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0.0355375026366517</v>
+        <v>0.01544209548253326</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1190802097769428</v>
+        <v>1.336480988563325</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.01544209548253326</v>
+        <v>1.376596612710929</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.265172211208223</v>
+        <v>3.482166525749183</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.376596612710929</v>
+        <v>1.113728521031125e-14</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.482166525749183</v>
+        <v>17271550.55345709</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1.113728521031125e-14</v>
+        <v>5.230317948340148e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>17271550.55345709</v>
+        <v>3.322324108622069</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>5.230317948340148e-06</v>
+        <v>0.0001220086148454552</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>3.322324108622069</v>
+        <v>7.339991232515475</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001220086148454552</v>
+        <v>1.886573636784277</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>7.339991232515475</v>
+        <v>0.006573271626654313</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.886573636784277</v>
+        <v>3.183979746041063</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.006573271626654313</v>
+        <v>0.9125626995374172</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.183979746041063</v>
+        <v>1.926174534091072</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9125626995374172</v>
+        <v>7</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.926174534091072</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.1827927596409039</v>
       </c>
     </row>
@@ -8313,72 +8103,66 @@
         <v>2.818473391309063e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.8228741224862524</v>
+        <v>8.521671537400474e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.7992727088338474</v>
+        <v>1.668679256971517e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>8.521671537400474e-07</v>
+        <v>0.03444649562528387</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1.668679256971517e-06</v>
+        <v>0.1183589510310163</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0.03444649562528387</v>
+        <v>0.01519490581791289</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1183589510310163</v>
+        <v>1.361626158887554</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.01519490581791289</v>
+        <v>1.421777983702786</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.287411680078727</v>
+        <v>3.668973996630931</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.421777983702786</v>
+        <v>1.003203749244244e-14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.668973996630931</v>
+        <v>19100479.56662782</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1.003203749244244e-14</v>
+        <v>4.804269425361289e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>19100479.56662782</v>
+        <v>3.65997138128605</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>4.804269425361289e-06</v>
+        <v>0.0001138489566435775</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>3.65997138128605</v>
+        <v>8.315654610071757</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001138489566435775</v>
+        <v>1.323767361266534</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>8.315654610071757</v>
+        <v>0.007872668056764722</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.323767361266534</v>
+        <v>3.060963700169217</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.007872668056764722</v>
+        <v>0.9173964299951339</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.060963700169217</v>
+        <v>1.934813698643244</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9173964299951339</v>
+        <v>7</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.934813698643244</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.196541782331565</v>
       </c>
     </row>
@@ -8393,72 +8177,66 @@
         <v>2.840276556013111e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.7434024232368512</v>
+        <v>8.521671537400474e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.9377557557747962</v>
+        <v>1.678295156775285e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>8.521671537400474e-07</v>
+        <v>0.03351475921421675</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>1.678295156775285e-06</v>
+        <v>0.1179548511974978</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0.03351475921421675</v>
+        <v>0.0150364558874103</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1179548511974978</v>
+        <v>1.402066390674393</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.0150364558874103</v>
+        <v>1.489114713636774</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.325892659744302</v>
+        <v>3.548955013315703</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.489114713636774</v>
+        <v>1.073668167455455e-14</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.548955013315703</v>
+        <v>17653054.96257376</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1.073668167455455e-14</v>
+        <v>5.32343645443644e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>17653054.96257376</v>
+        <v>3.345875862836764</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>5.32343645443644e-06</v>
+        <v>0.0001174557614310487</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>3.345875862836764</v>
+        <v>8.235110207460277</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001174557614310487</v>
+        <v>1.103043293859939</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.235110207460277</v>
+        <v>0.007965502086353615</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.103043293859939</v>
+        <v>2.951824350736604</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.007965502086353615</v>
+        <v>0.9264065412020788</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.951824350736604</v>
+        <v>1.94054774495368</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9264065412020788</v>
+        <v>7</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.94054774495368</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.199094023680384</v>
       </c>
     </row>
@@ -8473,72 +8251,66 @@
         <v>2.854495565551262e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.668417549196105</v>
+        <v>8.521671537400474e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-1.051198401447121</v>
+        <v>1.68773212265792e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>8.521671537400474e-07</v>
+        <v>0.03277929351534509</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1.68773212265792e-06</v>
+        <v>0.1176575439775894</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.03277929351534509</v>
+        <v>0.0149178776927082</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1176575439775894</v>
+        <v>1.425641915957938</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.0149178776927082</v>
+        <v>1.380796061076124</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.348508743128237</v>
+        <v>3.62629370239426</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.380796061076124</v>
+        <v>1.194598595344372e-14</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.62629370239426</v>
+        <v>15668631.58722167</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1.194598595344372e-14</v>
+        <v>6.037019650969529e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>15668631.58722167</v>
+        <v>2.932811416424832</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>6.037019650969529e-06</v>
+        <v>0.0001264743489581296</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>2.932811416424832</v>
+        <v>7.947137810217253</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001264743489581296</v>
+        <v>1.191827073157597</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>7.947137810217253</v>
+        <v>0.007987740378049595</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.191827073157597</v>
+        <v>2.985339715580747</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.007987740378049595</v>
+        <v>0.9271816557584147</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.985339715580747</v>
+        <v>1.917929415192427</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9271816557584147</v>
+        <v>6</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.917929415192427</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.186748874261557</v>
       </c>
     </row>
@@ -8915,7 +8687,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.513519266994481</v>
+        <v>1.534552246532565</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.204627686372617</v>
@@ -9004,7 +8776,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.548256620217192</v>
+        <v>1.566711634688028</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.134385720242681</v>
@@ -9093,7 +8865,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.590696775756439</v>
+        <v>1.605726374160755</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.949412455333361</v>
@@ -9182,7 +8954,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.63379835559388</v>
+        <v>1.647452913954642</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.198753641003803</v>
@@ -9271,7 +9043,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.651546214955097</v>
+        <v>1.667270038964381</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.240563331646636</v>
@@ -9360,7 +9132,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.669727114439548</v>
+        <v>1.682504287166638</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.123802806547749</v>
@@ -9449,7 +9221,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.793903780336206</v>
+        <v>1.805637877257224</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.634693882269733</v>
@@ -9538,7 +9310,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.84301112207958</v>
+        <v>1.854250309582105</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.567749559532351</v>
@@ -9627,7 +9399,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.851641010066659</v>
+        <v>1.867316545044663</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.584130831197502</v>
@@ -9716,7 +9488,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.8587933358574</v>
+        <v>1.87538639897596</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.699180066525818</v>
@@ -9805,7 +9577,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.862366116705538</v>
+        <v>1.879798056348899</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.60442983750466</v>
@@ -9894,7 +9666,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.86729464812701</v>
+        <v>1.884159222872824</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.670268709263971</v>
@@ -9983,7 +9755,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.870808918023984</v>
+        <v>1.88740885166771</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.755174183195016</v>
@@ -10072,7 +9844,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.872698453612798</v>
+        <v>1.878024866143533</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.617131345227512</v>
@@ -10161,7 +9933,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.929070499325392</v>
+        <v>1.921958513408211</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.772777935435497</v>
@@ -10250,7 +10022,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.929463565158522</v>
+        <v>1.9205723623197</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.774498669200133</v>
@@ -10339,7 +10111,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.9364293148433</v>
+        <v>1.928497267968301</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.900823226575187</v>
@@ -10428,7 +10200,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.942024577527556</v>
+        <v>1.932408867293234</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.90577069113539</v>
@@ -10517,7 +10289,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.940336105857029</v>
+        <v>1.930937319222225</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.858958129483734</v>
@@ -10606,7 +10378,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.934385933385254</v>
+        <v>1.924734881326402</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.712838285765831</v>
@@ -10695,7 +10467,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.874069383999528</v>
+        <v>1.878778743941028</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.701390733235587</v>
@@ -10784,7 +10556,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.869156860360412</v>
+        <v>1.87266743753188</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.741572219801371</v>
@@ -10873,7 +10645,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.863308751337796</v>
+        <v>1.855637084667083</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.507019354848425</v>
@@ -10962,7 +10734,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.851647515123473</v>
+        <v>1.841383002175292</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.61275221690514</v>
@@ -11051,7 +10823,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.840603575849548</v>
+        <v>1.821837237252707</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.603578670475343</v>
@@ -11140,7 +10912,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.837143468115139</v>
+        <v>1.813781502842319</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.503015437482402</v>
@@ -11229,7 +11001,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.830889862105906</v>
+        <v>1.810238968281521</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.516815358038157</v>
@@ -11318,7 +11090,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.799249111668258</v>
+        <v>1.785817378535272</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.677165242417256</v>
@@ -11407,7 +11179,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.726080546832952</v>
+        <v>1.727572891334016</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.488874006212423</v>
@@ -11496,7 +11268,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.709881051198813</v>
+        <v>1.714898299427543</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.534985570248161</v>
@@ -11585,7 +11357,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.690734031782859</v>
+        <v>1.687570348647749</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.479979567054606</v>
@@ -11674,7 +11446,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.653371859575523</v>
+        <v>1.66272527132071</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.5071352853548</v>
@@ -11763,7 +11535,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.644096014559938</v>
+        <v>1.656598987062251</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.480598959918503</v>
@@ -11852,7 +11624,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.598396200972715</v>
+        <v>1.617247384148716</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.553640678408549</v>
@@ -11941,7 +11713,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.598352377906135</v>
+        <v>1.618514246421566</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.59691574882859</v>
@@ -12030,7 +11802,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.634202902422168</v>
+        <v>1.64855688767795</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.601967901381251</v>
@@ -12119,7 +11891,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.641948324879449</v>
+        <v>1.660422639803572</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.571039254883293</v>
@@ -12208,7 +11980,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.63987827572168</v>
+        <v>1.667764795539065</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.555483818972799</v>
@@ -12297,7 +12069,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.597739914427038</v>
+        <v>1.629444058224861</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.605876287676751</v>
@@ -12386,7 +12158,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.509353849298293</v>
+        <v>1.543055534014393</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.01280356494217</v>
@@ -12475,7 +12247,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.49993624485056</v>
+        <v>1.535131624594259</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.024903863433367</v>
@@ -12564,7 +12336,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.499898520142265</v>
+        <v>1.528904726807396</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.031433040231549</v>
@@ -12653,7 +12425,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.50483305855894</v>
+        <v>1.536573312874263</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.077039440365708</v>
@@ -12742,7 +12514,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.534643173007451</v>
+        <v>1.566030549855223</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.073045328855942</v>
@@ -12831,7 +12603,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.540997920780361</v>
+        <v>1.571761620905263</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.026838130578161</v>
@@ -12920,7 +12692,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.565259874127367</v>
+        <v>1.591586085575645</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.140595692380508</v>
@@ -13009,7 +12781,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.55117908439149</v>
+        <v>1.577558813733401</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.030295394291385</v>
@@ -13098,7 +12870,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.571315295900109</v>
+        <v>1.59449507050416</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.057900779083337</v>
@@ -13187,7 +12959,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.588497518115332</v>
+        <v>1.608078856962034</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.000727931372573</v>
@@ -13276,7 +13048,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.594155653136756</v>
+        <v>1.613113219206164</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.013047114535413</v>
@@ -13365,7 +13137,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.586808764900678</v>
+        <v>1.605955115944593</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.009172943207536</v>
@@ -13454,7 +13226,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.580897777110978</v>
+        <v>1.6007673379614</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.013944216727211</v>
@@ -13543,7 +13315,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.586589144245411</v>
+        <v>1.602651908045986</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.934580395923209</v>
@@ -13632,7 +13404,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.601917755086786</v>
+        <v>1.619798642384426</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.022497516061064</v>
@@ -13721,7 +13493,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.693790566379273</v>
+        <v>1.70839572697233</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.510104019728435</v>
@@ -13810,7 +13582,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.704670435952403</v>
+        <v>1.717280924937303</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.579318559215812</v>
@@ -13899,7 +13671,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.712757402074097</v>
+        <v>1.72949311778607</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.724635748073301</v>
@@ -13988,7 +13760,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.734056012196873</v>
+        <v>1.74967567602896</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.737749478692824</v>
@@ -14077,7 +13849,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.695870834714142</v>
+        <v>1.715448250972396</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.506636074543627</v>
@@ -14166,7 +13938,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.697742263855205</v>
+        <v>1.717770614219983</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.72948690090332</v>
@@ -14255,7 +14027,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.703771512660248</v>
+        <v>1.727094609850578</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.549131010674976</v>
@@ -14344,7 +14116,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.739390962355543</v>
+        <v>1.763224999460372</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.600016398708654</v>
@@ -14433,7 +14205,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.701951509259972</v>
+        <v>1.730695256786757</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.711583690101802</v>
@@ -14522,7 +14294,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.703134437803587</v>
+        <v>1.734437429941318</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.60094187765637</v>
@@ -14611,7 +14383,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.703174486116398</v>
+        <v>1.735770638412799</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.670097166439734</v>
@@ -14700,7 +14472,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.707071199570785</v>
+        <v>1.738263876023483</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.621039104122952</v>
@@ -14789,7 +14561,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.704925891844705</v>
+        <v>1.731127542322864</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.63278710934054</v>
@@ -14878,7 +14650,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.67988678459944</v>
+        <v>1.710585832256091</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.491871611687499</v>
@@ -14967,7 +14739,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.689980388166815</v>
+        <v>1.718492050343636</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.83657853834712</v>
@@ -15056,7 +14828,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.742512996527202</v>
+        <v>1.759760516103433</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.851306499866352</v>
@@ -15145,7 +14917,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.748911451146958</v>
+        <v>1.770194421687401</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.646640210557281</v>
@@ -15234,7 +15006,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.723191216304689</v>
+        <v>1.746328825994415</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.672353683341197</v>
@@ -15323,7 +15095,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.723760542164074</v>
+        <v>1.748116471952987</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.790205805027643</v>
@@ -15412,7 +15184,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.758674160803421</v>
+        <v>1.777194562241633</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.675747607702299</v>
@@ -15501,7 +15273,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.755617604685374</v>
+        <v>1.773268615678377</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.773827800593511</v>
@@ -15590,7 +15362,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.750242422413798</v>
+        <v>1.761907533706885</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.560008644643172</v>
@@ -15679,7 +15451,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.763224837818809</v>
+        <v>1.767061264929476</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.366436120386484</v>
@@ -15768,7 +15540,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.79904634360505</v>
+        <v>1.797519348875848</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.604544607082495</v>
@@ -15857,7 +15629,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.800411294293525</v>
+        <v>1.7953562282966</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.842376205276694</v>
@@ -15946,7 +15718,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.799801092381675</v>
+        <v>1.794524941525697</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.660247662356629</v>
@@ -16035,7 +15807,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.792179974205154</v>
+        <v>1.793551893495932</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.592399239400246</v>
@@ -16321,7 +16093,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.647134447690366</v>
+        <v>1.645853531476269</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.514885128503499</v>
@@ -16410,7 +16182,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.645278531033292</v>
+        <v>1.646251182364322</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.512854250669737</v>
@@ -16499,7 +16271,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.667218238224637</v>
+        <v>1.662909481486544</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.296848637076117</v>
@@ -16588,7 +16360,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.682089678866216</v>
+        <v>1.675714809447604</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.495377497181168</v>
@@ -16677,7 +16449,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.674002907885265</v>
+        <v>1.668481243014392</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.500755758016181</v>
@@ -16766,7 +16538,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.685800173514184</v>
+        <v>1.673076811767749</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.529179838617147</v>
@@ -16855,7 +16627,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.767763341409056</v>
+        <v>1.732038521147876</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.512213667014091</v>
@@ -16944,7 +16716,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.779284814425163</v>
+        <v>1.737265849155336</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.409646278914672</v>
@@ -17033,7 +16805,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.771991635885952</v>
+        <v>1.726403094580522</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.038467208047886</v>
@@ -17122,7 +16894,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.763943816524933</v>
+        <v>1.713294744696435</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.149726499568189</v>
@@ -17211,7 +16983,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.748206751015141</v>
+        <v>1.702634636266282</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.523475184803879</v>
@@ -17300,7 +17072,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.741728456605838</v>
+        <v>1.700145832974465</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.417865584535855</v>
@@ -17389,7 +17161,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.763703041551029</v>
+        <v>1.721051784632043</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.912099908098744</v>
@@ -17478,7 +17250,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.732214639477145</v>
+        <v>1.705614367491002</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.026988589063031</v>
@@ -17567,7 +17339,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.721086814842615</v>
+        <v>1.694470356865156</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.026585365048838</v>
@@ -17656,7 +17428,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.720957591198825</v>
+        <v>1.693694904072325</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.023255424933403</v>
@@ -17745,7 +17517,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.729883034999889</v>
+        <v>1.706874935122374</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.032877310200834</v>
@@ -17834,7 +17606,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.739628454100037</v>
+        <v>1.71980434171972</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.056462502190676</v>
@@ -17923,7 +17695,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.748168187083299</v>
+        <v>1.725742689100166</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.023121096955334</v>
@@ -18012,7 +17784,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.747452587264364</v>
+        <v>1.727241722703061</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.034094325819647</v>
@@ -18101,7 +17873,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.73481237174541</v>
+        <v>1.721644251283254</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.060560829245069</v>
@@ -18190,7 +17962,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.725732752300837</v>
+        <v>1.714761170025881</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.085405506427839</v>
@@ -18279,7 +18051,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.718311382954161</v>
+        <v>1.708414412368808</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.100647087258519</v>
@@ -18368,7 +18140,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.691588594602701</v>
+        <v>1.683553202445159</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.07168534384674</v>
@@ -18457,7 +18229,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.687031351643733</v>
+        <v>1.678014733324745</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.065108613757422</v>
@@ -18546,7 +18318,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.696840892252454</v>
+        <v>1.686122033471361</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.03987899857321</v>
@@ -18635,7 +18407,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.693397355486954</v>
+        <v>1.683170614282749</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.058093268351747</v>
@@ -18724,7 +18496,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.709884111686427</v>
+        <v>1.711463687121678</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.881163657997555</v>
@@ -18813,7 +18585,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.671680231386456</v>
+        <v>1.660596811215455</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.444419727433973</v>
@@ -18902,7 +18674,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.657546173089556</v>
+        <v>1.650443679027229</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.141477626752951</v>
@@ -18991,7 +18763,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.648515086225451</v>
+        <v>1.645079180397617</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.467805389737479</v>
@@ -19080,7 +18852,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.628022881905004</v>
+        <v>1.62217986609555</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.301678321521749</v>
@@ -19169,7 +18941,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.609764323100212</v>
+        <v>1.604323930512885</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.337370658494035</v>
@@ -19258,7 +19030,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.59637015119795</v>
+        <v>1.592905141638511</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.229130941657162</v>
@@ -19347,7 +19119,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.603475613240059</v>
+        <v>1.598742022666559</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.109772161743363</v>
@@ -19436,7 +19208,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.609930436068936</v>
+        <v>1.601931732970405</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.354127555556413</v>
@@ -19525,7 +19297,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.626778208110602</v>
+        <v>1.619938351727674</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.695739753324605</v>
@@ -19614,7 +19386,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.630568676259618</v>
+        <v>1.627361627338578</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.781747200814161</v>
@@ -19703,7 +19475,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.6429677851587</v>
+        <v>1.638266037840464</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.360981044035591</v>
@@ -19792,7 +19564,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.608252436238153</v>
+        <v>1.604632746339293</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.77293743218579</v>
@@ -19881,7 +19653,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.59128823094131</v>
+        <v>1.597492297799968</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.727635935091551</v>
@@ -19970,7 +19742,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.617121769181509</v>
+        <v>1.615213950443744</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.178519786882463</v>
@@ -20059,7 +19831,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.582814664153494</v>
+        <v>1.581470003698325</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.125495681212682</v>
@@ -20148,7 +19920,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.58721653552865</v>
+        <v>1.584019321294784</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.168975552699123</v>
@@ -20237,7 +20009,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.600322293154513</v>
+        <v>1.594395747205473</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.253821071725162</v>
@@ -20326,7 +20098,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.603018154821266</v>
+        <v>1.59451196704202</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.281313508876625</v>
@@ -20415,7 +20187,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.614611867921811</v>
+        <v>1.601279490656571</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.252100851892813</v>
@@ -20504,7 +20276,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.615465022908762</v>
+        <v>1.595698800008584</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.217064953036692</v>
@@ -20593,7 +20365,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.614510973635348</v>
+        <v>1.591025100045295</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.206653517736144</v>
@@ -20682,7 +20454,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.609192417773141</v>
+        <v>1.585767136367556</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.233718608079077</v>
@@ -20771,7 +20543,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.613356315871684</v>
+        <v>1.584341142842535</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.186564410190837</v>
@@ -20860,7 +20632,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.609417680528663</v>
+        <v>1.582739155955486</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.259416059344771</v>
@@ -20949,7 +20721,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.6068031279965</v>
+        <v>1.57313213237581</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.205320331872676</v>
@@ -21038,7 +20810,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.61141897849885</v>
+        <v>1.578291198483027</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.1932335264195</v>
@@ -21127,7 +20899,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.652202435321065</v>
+        <v>1.615209955185196</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.360961548743658</v>
@@ -21216,7 +20988,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.683403317141328</v>
+        <v>1.626516565051976</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.076793747148869</v>
@@ -21305,7 +21077,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.706347436415783</v>
+        <v>1.641109090933547</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.080312037299625</v>
@@ -21394,7 +21166,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.733822115005434</v>
+        <v>1.666623160065122</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.983220162523514</v>
@@ -21483,7 +21255,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.741550385514249</v>
+        <v>1.672368708953784</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.687476609387455</v>
@@ -21572,7 +21344,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.733784288877674</v>
+        <v>1.660354216263599</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.753950838763841</v>
@@ -21661,7 +21433,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.736219456427518</v>
+        <v>1.662065338543318</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.589782747730589</v>
@@ -21750,7 +21522,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.732271571322265</v>
+        <v>1.661468920128466</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.202611050090828</v>
@@ -21839,7 +21611,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.733736003028238</v>
+        <v>1.671075257088978</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.738184726067468</v>
@@ -21928,7 +21700,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.723369648437439</v>
+        <v>1.669075758221777</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.352100127234679</v>
@@ -22017,7 +21789,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.731523726074593</v>
+        <v>1.667030618404979</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.467437952330929</v>
@@ -22106,7 +21878,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.733477170092424</v>
+        <v>1.67787179878157</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.099513823714809</v>
@@ -22195,7 +21967,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.735892889036353</v>
+        <v>1.673237726930528</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.230373991099776</v>
@@ -22284,7 +22056,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.749691987841788</v>
+        <v>1.684939402712175</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.37363967480981</v>
@@ -22373,7 +22145,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.752978463536579</v>
+        <v>1.692419889942135</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.861968383146514</v>
@@ -22462,7 +22234,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.750891263406117</v>
+        <v>1.688584468276391</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.970255798405797</v>
@@ -22551,7 +22323,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.749053049193882</v>
+        <v>1.690205513442654</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>4.004773244361552</v>
@@ -22640,7 +22412,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.72484095435074</v>
+        <v>1.66857554285887</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.215366744714932</v>
@@ -22729,7 +22501,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.71213403023167</v>
+        <v>1.659395097935543</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.298285561401605</v>
@@ -22818,7 +22590,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.696744332340639</v>
+        <v>1.643598685709222</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.300499753834162</v>
@@ -22907,7 +22679,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.706264402217978</v>
+        <v>1.656856419477683</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.318399223598346</v>
@@ -22996,7 +22768,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.71402890212089</v>
+        <v>1.659845870685076</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.371402868075527</v>
@@ -23085,7 +22857,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.719479311887899</v>
+        <v>1.670166919838316</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.21881713990773</v>
@@ -23174,7 +22946,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.725256179707555</v>
+        <v>1.672920603940882</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.370934082287307</v>
@@ -23263,7 +23035,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.738611611650721</v>
+        <v>1.680527105839589</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.31681857030074</v>
@@ -23352,7 +23124,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.740562348821868</v>
+        <v>1.686530477603323</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.425413626825872</v>
@@ -23441,7 +23213,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.714670246929587</v>
+        <v>1.66684952581372</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.121398498407586</v>
@@ -23727,7 +23499,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.671000972913342</v>
+        <v>1.646879206665008</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.605623242824438</v>
@@ -23816,7 +23588,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.67145424248767</v>
+        <v>1.642634380486113</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.548699191942177</v>
@@ -23905,7 +23677,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.691237538556606</v>
+        <v>1.659495479722568</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.424277834250403</v>
@@ -23994,7 +23766,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.732374891811141</v>
+        <v>1.691481678281358</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.543234461478865</v>
@@ -24083,7 +23855,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.73654499589648</v>
+        <v>1.69871042023837</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.57523003287299</v>
@@ -24172,7 +23944,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.743754547771821</v>
+        <v>1.709561022506723</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.795790973918795</v>
@@ -24261,7 +24033,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.803847846080889</v>
+        <v>1.752360372569758</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>4.461798629506167</v>
@@ -24350,7 +24122,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.809305499673322</v>
+        <v>1.756292532234743</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.302967451763589</v>
@@ -24439,7 +24211,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.814745457773955</v>
+        <v>1.762984202733919</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.401113726015329</v>
@@ -24528,7 +24300,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.821076248979216</v>
+        <v>1.766078928222235</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.721220272444262</v>
@@ -24617,7 +24389,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.804852065153062</v>
+        <v>1.756294615105255</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>4.109470071680774</v>
@@ -24706,7 +24478,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.801666405809429</v>
+        <v>1.749893872679633</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.248594356530851</v>
@@ -24795,7 +24567,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.852095190823469</v>
+        <v>1.805423097379617</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.884332211717247</v>
@@ -24884,7 +24656,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.839049370873473</v>
+        <v>1.794764241225241</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.971520568783764</v>
@@ -24973,7 +24745,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.83829476120493</v>
+        <v>1.795269015868055</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.982734481749529</v>
@@ -25062,7 +24834,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.837491378124771</v>
+        <v>1.793208059841155</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.954409815640284</v>
@@ -25151,7 +24923,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.847892255592775</v>
+        <v>1.805278055472242</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.980590829559012</v>
@@ -25240,7 +25012,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.858436399587686</v>
+        <v>1.814549122735162</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.006901202125608</v>
@@ -25329,7 +25101,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.863578136851131</v>
+        <v>1.822981848927011</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.026571905027648</v>
@@ -25418,7 +25190,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.867388916189699</v>
+        <v>1.828024084607169</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.039454942088337</v>
@@ -25507,7 +25279,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.849355924605636</v>
+        <v>1.816094644250034</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.026472854749084</v>
@@ -25596,7 +25368,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.852770921974675</v>
+        <v>1.820259116136864</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.033077252184683</v>
@@ -25685,7 +25457,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.850410766938015</v>
+        <v>1.817392840327936</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.027706102263096</v>
@@ -25774,7 +25546,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.84025313186412</v>
+        <v>1.80519006555361</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.043435479472469</v>
@@ -25863,7 +25635,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.838886136332262</v>
+        <v>1.802161109867511</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.040757116162723</v>
@@ -25952,7 +25724,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.84260010720885</v>
+        <v>1.803584945781272</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.016680351483132</v>
@@ -26041,7 +25813,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.844355977661578</v>
+        <v>1.805099792617699</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.027130112717661</v>
@@ -26130,7 +25902,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.867986458331125</v>
+        <v>1.831796593351702</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.869944962979762</v>
@@ -26219,7 +25991,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.803198239152659</v>
+        <v>1.761500506853557</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.629809482898848</v>
@@ -26308,7 +26080,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.798534298688374</v>
+        <v>1.756748431097703</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.827366455727834</v>
@@ -26397,7 +26169,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.793066887851761</v>
+        <v>1.748531500429577</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.6317613985829</v>
@@ -26486,7 +26258,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.779167822423223</v>
+        <v>1.734432860679358</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.138108568126507</v>
@@ -26575,7 +26347,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.760271108723514</v>
+        <v>1.713679828988897</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.683926619109573</v>
@@ -26664,7 +26436,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.737271763750943</v>
+        <v>1.685449027802366</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.497916479254799</v>
@@ -26753,7 +26525,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.7382185228088</v>
+        <v>1.6791758429766</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.15579445077224</v>
@@ -26842,7 +26614,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.757793418703027</v>
+        <v>1.68844752459992</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.234973877629993</v>
@@ -26931,7 +26703,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.753064030707397</v>
+        <v>1.685911119855796</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.293107153915458</v>
@@ -27020,7 +26792,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.759633766852321</v>
+        <v>1.696238936978734</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.303698820356371</v>
@@ -27109,7 +26881,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.763602268911951</v>
+        <v>1.701713701054905</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.171584646259964</v>
@@ -27198,7 +26970,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.738404114339033</v>
+        <v>1.687251980319837</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.764037974461289</v>
@@ -27287,7 +27059,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.745929556641847</v>
+        <v>1.708883360033714</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.655544862686984</v>
@@ -27376,7 +27148,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.751684907221969</v>
+        <v>1.710491125098455</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.52470591349215</v>
@@ -27465,7 +27237,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.719466742303718</v>
+        <v>1.67790201163702</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.473589246830896</v>
@@ -27554,7 +27326,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.726914930898529</v>
+        <v>1.684768962301732</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.422091213642214</v>
@@ -27643,7 +27415,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.727683492327148</v>
+        <v>1.687544559200351</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.481319519635344</v>
@@ -27732,7 +27504,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.737687955770927</v>
+        <v>1.692319170248054</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.435340475784995</v>
@@ -27821,7 +27593,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.732656171709119</v>
+        <v>1.690359359327069</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.585746709732502</v>
@@ -27910,7 +27682,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.735888474055055</v>
+        <v>1.693202726937865</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.514309335014126</v>
@@ -27999,7 +27771,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.740063995511333</v>
+        <v>1.697027398575853</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.541305576222491</v>
@@ -28088,7 +27860,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.736808697708089</v>
+        <v>1.694160031829932</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.563215964160442</v>
@@ -28177,7 +27949,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.727421082847488</v>
+        <v>1.68994985147287</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.51573805441422</v>
@@ -28266,7 +28038,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.728745274823042</v>
+        <v>1.690022752571523</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.548600286070073</v>
@@ -28355,7 +28127,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.727428642681198</v>
+        <v>1.686926523036506</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.622146525161667</v>
@@ -28444,7 +28216,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.727839630206887</v>
+        <v>1.686513915039542</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.560318804798649</v>
@@ -28533,7 +28305,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.754693699526017</v>
+        <v>1.700580214001464</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.428705534654357</v>
@@ -28622,7 +28394,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.755436625504283</v>
+        <v>1.685581005824311</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.643521175900511</v>
@@ -28711,7 +28483,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.769680125070097</v>
+        <v>1.70129906594258</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.371868755664203</v>
@@ -28800,7 +28572,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.774044481675149</v>
+        <v>1.706388099135862</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.972179862808216</v>
@@ -28889,7 +28661,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.771277631775516</v>
+        <v>1.704828692329656</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.058413535831744</v>
@@ -28978,7 +28750,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.772150514715934</v>
+        <v>1.700626541121378</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.465697080322239</v>
@@ -29067,7 +28839,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.76782800665839</v>
+        <v>1.70364009025742</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.602784553004061</v>
@@ -29156,7 +28928,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.777945441104356</v>
+        <v>1.711876980519029</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.036542044330996</v>
@@ -29245,7 +29017,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.775805429184459</v>
+        <v>1.715220744649255</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.54236869610518</v>
@@ -29334,7 +29106,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.775865893379948</v>
+        <v>1.718934142968219</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.490019542978471</v>
@@ -29423,7 +29195,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.780995908184959</v>
+        <v>1.720684233988837</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.381001143847558</v>
@@ -29512,7 +29284,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.78490749049431</v>
+        <v>1.721484034019565</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.452312551852844</v>
@@ -29601,7 +29373,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.790088382637917</v>
+        <v>1.721629850832932</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.107795483509299</v>
@@ -29690,7 +29462,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.787667799577692</v>
+        <v>1.722674455441353</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.279535331381374</v>
@@ -29779,7 +29551,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.796408023965178</v>
+        <v>1.729246396537045</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.383692033803454</v>
@@ -29868,7 +29640,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.79348933393113</v>
+        <v>1.727858622467313</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.903499178081962</v>
@@ -29957,7 +29729,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.791040842182958</v>
+        <v>1.722926906795486</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>4.038389232383421</v>
@@ -30046,7 +29818,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.779655833340332</v>
+        <v>1.713478401976911</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.694261419486499</v>
@@ -30135,7 +29907,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.775712155666864</v>
+        <v>1.714787932758602</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.884492115110651</v>
@@ -30224,7 +29996,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.776093637824296</v>
+        <v>1.708006825408492</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>4.436995080298017</v>
@@ -30313,7 +30085,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.782106184670058</v>
+        <v>1.713704870209119</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.785219263598952</v>
@@ -30402,7 +30174,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.782905964168295</v>
+        <v>1.708846831671087</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>4.240535643679272</v>
@@ -30491,7 +30263,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.78142488650915</v>
+        <v>1.7110302513265</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.712649831481</v>
@@ -30580,7 +30352,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.78528709095188</v>
+        <v>1.708602594470269</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.652056146359559</v>
@@ -30669,7 +30441,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.77138964468281</v>
+        <v>1.687861191019649</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.68957219128287</v>
@@ -30758,7 +30530,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.777424057519492</v>
+        <v>1.702037056171335</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>4.361634820937732</v>
@@ -30847,7 +30619,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.779021237088146</v>
+        <v>1.702267809375326</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>4.111019755523737</v>
@@ -31133,7 +30905,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.631539201384496</v>
+        <v>1.611493722219046</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.498621250233674</v>
@@ -31222,7 +30994,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.639567204680106</v>
+        <v>1.623458295489625</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.600954682599809</v>
@@ -31311,7 +31083,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.646094625151925</v>
+        <v>1.623686732124483</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.657960133873648</v>
@@ -31400,7 +31172,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.679346683010678</v>
+        <v>1.648066044822299</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.470434707217303</v>
@@ -31489,7 +31261,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.674674662902137</v>
+        <v>1.647135118782092</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.51351156062693</v>
@@ -31578,7 +31350,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.680730300254379</v>
+        <v>1.655222656332916</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.45908705010655</v>
@@ -31667,7 +31439,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.75235057370125</v>
+        <v>1.702927589367373</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.387700423373948</v>
@@ -31756,7 +31528,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.754095077740095</v>
+        <v>1.704116236629686</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.813462297312717</v>
@@ -31845,7 +31617,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.757684078870803</v>
+        <v>1.708979484881233</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>4.654033708622445</v>
@@ -31934,7 +31706,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.755090721065789</v>
+        <v>1.707872277366623</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.04650349400669</v>
@@ -32023,7 +31795,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.742930414822048</v>
+        <v>1.696363212570017</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.766990018558765</v>
@@ -32112,7 +31884,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.733441483122629</v>
+        <v>1.695462102100777</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.793312200272634</v>
@@ -32201,7 +31973,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.738357231452602</v>
+        <v>1.699018666785749</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.093691160960853</v>
@@ -32290,7 +32062,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.730932872525774</v>
+        <v>1.687873103824687</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.907924153611521</v>
@@ -32379,7 +32151,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.738327144687264</v>
+        <v>1.693251687375731</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.988564672277112</v>
@@ -32468,7 +32240,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.73379118935706</v>
+        <v>1.677989972055961</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.911382071394612</v>
@@ -32557,7 +32329,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.730904192869224</v>
+        <v>1.672636453467278</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.077569609126603</v>
@@ -32646,7 +32418,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.733842846064969</v>
+        <v>1.678743496970666</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.994732491660715</v>
@@ -32735,7 +32507,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.735901680469553</v>
+        <v>1.68113575503592</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.09446259682226</v>
@@ -32824,7 +32596,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.738973079584502</v>
+        <v>1.679875681053858</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.942174990866453</v>
@@ -32913,7 +32685,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.71792516965143</v>
+        <v>1.66165319280643</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.886036567471859</v>
@@ -33002,7 +32774,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.714174154298336</v>
+        <v>1.658606701396652</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.12224671496764</v>
@@ -33091,7 +32863,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.713131559882783</v>
+        <v>1.64872943584215</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.860306937164958</v>
@@ -33180,7 +32952,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.708031638362514</v>
+        <v>1.637630019788767</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.676815649382614</v>
@@ -33269,7 +33041,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.707359136316044</v>
+        <v>1.631530215163715</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.043061397384003</v>
@@ -33358,7 +33130,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.725172502140361</v>
+        <v>1.645386638297611</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.082251395475061</v>
@@ -33447,7 +33219,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.725622201006801</v>
+        <v>1.646381950515008</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.840624351015848</v>
@@ -33536,7 +33308,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.713014894429361</v>
+        <v>1.638288433010236</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.631586328653896</v>
@@ -33625,7 +33397,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.713685479430498</v>
+        <v>1.644961589819161</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.526023242667907</v>
@@ -33714,7 +33486,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.716255813967573</v>
+        <v>1.647292728977807</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.566194646014117</v>
@@ -33803,7 +33575,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.711631791264212</v>
+        <v>1.64340566722962</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.27319229238561</v>
@@ -33892,7 +33664,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.707836050430207</v>
+        <v>1.650387575258793</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.004583846832392</v>
@@ -33981,7 +33753,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.699181048222314</v>
+        <v>1.645483238455066</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.092291333439287</v>
@@ -34070,7 +33842,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.682876406082287</v>
+        <v>1.6246390559734</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.195757809929518</v>
@@ -34159,7 +33931,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.691233401217044</v>
+        <v>1.634292192849024</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.983851214009998</v>
@@ -34248,7 +34020,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.705924015349576</v>
+        <v>1.642836241231077</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.062644267054785</v>
@@ -34337,7 +34109,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.714258866519301</v>
+        <v>1.656356539562815</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.865338355463719</v>
@@ -34426,7 +34198,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.710567100250544</v>
+        <v>1.661722013653237</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.073281846505262</v>
@@ -34515,7 +34287,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.705218891104266</v>
+        <v>1.666028783895545</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.358788239965371</v>
@@ -34604,7 +34376,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.680064430189347</v>
+        <v>1.649173497706004</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.220460126160739</v>
@@ -34693,7 +34465,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.677515800480355</v>
+        <v>1.642668634683455</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.070099321526064</v>
@@ -34782,7 +34554,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.687742733807587</v>
+        <v>1.642928769611176</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.347042577787203</v>
@@ -34871,7 +34643,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.661897668436515</v>
+        <v>1.613881881454532</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.386013797307115</v>
@@ -34960,7 +34732,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.672513657891984</v>
+        <v>1.6227101651792</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.333926155736811</v>
@@ -35049,7 +34821,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.67457679576567</v>
+        <v>1.615464124853889</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.338962456423392</v>
@@ -35138,7 +34910,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.680786722932049</v>
+        <v>1.619652120417276</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.316605537887999</v>
@@ -35227,7 +34999,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.681951100183612</v>
+        <v>1.61214641597925</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.423280367531038</v>
@@ -35316,7 +35088,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.691383680570387</v>
+        <v>1.615613320107959</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.471033382101802</v>
@@ -35405,7 +35177,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.696616538711516</v>
+        <v>1.618266357032682</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.44978506029702</v>
@@ -35494,7 +35266,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.696436503466107</v>
+        <v>1.617762994650313</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.426672260684141</v>
@@ -35583,7 +35355,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.697063294292774</v>
+        <v>1.618087606588701</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.410640080132485</v>
@@ -35672,7 +35444,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.699771821408842</v>
+        <v>1.618507083512523</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.343861330621821</v>
@@ -35761,7 +35533,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.702380346170604</v>
+        <v>1.616657835825268</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.365041119819344</v>
@@ -35850,7 +35622,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.710619196717049</v>
+        <v>1.622893254229078</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.508385498837404</v>
@@ -35939,7 +35711,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.739713963477435</v>
+        <v>1.642090790039096</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.324562539697609</v>
@@ -36028,7 +35800,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.745631857830328</v>
+        <v>1.640604103844096</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.267336327787022</v>
@@ -36117,7 +35889,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.775510404390223</v>
+        <v>1.672440878762817</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.304118777433769</v>
@@ -36206,7 +35978,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.786495458814927</v>
+        <v>1.680187918373292</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.303451899355319</v>
@@ -36295,7 +36067,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.775909447185047</v>
+        <v>1.670201375393031</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.080293797298545</v>
@@ -36384,7 +36156,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.779218351813095</v>
+        <v>1.676190977455869</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>4.100753949108167</v>
@@ -36473,7 +36245,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.770081563097896</v>
+        <v>1.667740359277549</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.743961881450745</v>
@@ -36562,7 +36334,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.772121441311531</v>
+        <v>1.666374119316306</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.857194071369193</v>
@@ -36651,7 +36423,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.778380967416462</v>
+        <v>1.667535026482172</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.065483756529125</v>
@@ -36740,7 +36512,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.780192408652737</v>
+        <v>1.683212900873668</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.577404902839524</v>
@@ -36829,7 +36601,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.781334397966167</v>
+        <v>1.686055427922182</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.794623116662402</v>
@@ -36918,7 +36690,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.78086039746907</v>
+        <v>1.691469496074816</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.033784582616598</v>
@@ -37007,7 +36779,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.77076141120605</v>
+        <v>1.683700063238833</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.463889496993449</v>
@@ -37096,7 +36868,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.769403882984042</v>
+        <v>1.684892616883401</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>4.29606080720026</v>
@@ -37185,7 +36957,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.767049670723527</v>
+        <v>1.685422921661375</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>4.230097258005516</v>
@@ -37274,7 +37046,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.76670376291186</v>
+        <v>1.69004891426402</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.824581067484795</v>
@@ -37363,7 +37135,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.763682435423865</v>
+        <v>1.692507673137755</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.698196343754439</v>
@@ -37452,7 +37224,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.764289164129777</v>
+        <v>1.690208351470592</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>4.270073322885374</v>
@@ -37541,7 +37313,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.762729106924506</v>
+        <v>1.688238111328702</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.84506391968258</v>
@@ -37630,7 +37402,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.751878876658007</v>
+        <v>1.678236378042347</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.417287579361367</v>
@@ -37719,7 +37491,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.761852167496543</v>
+        <v>1.691775125745234</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>4.023036273746482</v>
@@ -37808,7 +37580,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.767900461951595</v>
+        <v>1.701917490325726</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.405834322968415</v>
@@ -37897,7 +37669,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.763758357073961</v>
+        <v>1.706916158095084</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.949821311258427</v>
@@ -37986,7 +37758,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.766669491703601</v>
+        <v>1.708191565448513</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.59578558872191</v>
@@ -38075,7 +37847,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.764533767806948</v>
+        <v>1.705277784849984</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.59233569634928</v>
@@ -38164,7 +37936,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.763846517025592</v>
+        <v>1.707785773287281</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>4.071734686857839</v>
@@ -38253,7 +38025,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.76298045131643</v>
+        <v>1.709136650199824</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.430961686265984</v>
@@ -38539,7 +38311,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.559557773419386</v>
+        <v>1.546153566962905</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.433371397980346</v>
@@ -38628,7 +38400,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.567064563177064</v>
+        <v>1.549014552451994</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.495645683387564</v>
@@ -38717,7 +38489,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.59755563686836</v>
+        <v>1.582176624416377</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.312711175948659</v>
@@ -38806,7 +38578,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.630847450611785</v>
+        <v>1.619069171951498</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.306776465124305</v>
@@ -38895,7 +38667,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.626454434670754</v>
+        <v>1.611122474112044</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.362466223929966</v>
@@ -38984,7 +38756,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.642122476716682</v>
+        <v>1.622429537475887</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.268285714748782</v>
@@ -39073,7 +38845,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.719946794703205</v>
+        <v>1.684558353090527</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.011753293935881</v>
@@ -39162,7 +38934,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.72435358974803</v>
+        <v>1.682161664956108</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.518614539899966</v>
@@ -39251,7 +39023,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.735420105835137</v>
+        <v>1.687763699491459</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.59101009963518</v>
@@ -39340,7 +39112,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.743251917728747</v>
+        <v>1.694816818038832</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.41982396482053</v>
@@ -39429,7 +39201,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.695640961712476</v>
+        <v>1.664658682607717</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.298872353381773</v>
@@ -39518,7 +39290,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.695621481212322</v>
+        <v>1.662654530197559</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.318009504776012</v>
@@ -39607,7 +39379,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.662994419024737</v>
+        <v>1.640001810959153</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.25036932937259</v>
@@ -39696,7 +39468,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.655400462665198</v>
+        <v>1.638107728231155</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.353558659985842</v>
@@ -39785,7 +39557,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.657018183606638</v>
+        <v>1.6412470279442</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.411610649199061</v>
@@ -39874,7 +39646,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.654617768590889</v>
+        <v>1.639026163334401</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.4441096121558</v>
@@ -39963,7 +39735,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.658046003912739</v>
+        <v>1.640124953140339</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.412334060489643</v>
@@ -40052,7 +39824,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.656711795310204</v>
+        <v>1.6407298759867</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.388770005580126</v>
@@ -40141,7 +39913,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.657547923165993</v>
+        <v>1.639659359363073</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.340643318596978</v>
@@ -40230,7 +40002,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.652310061027788</v>
+        <v>1.63748597981977</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.434337539444908</v>
@@ -40319,7 +40091,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.610972314575841</v>
+        <v>1.604607785160312</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.346551811775103</v>
@@ -40408,7 +40180,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.599712533733552</v>
+        <v>1.592348713472108</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.330161183843729</v>
@@ -40497,7 +40269,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.585749090354247</v>
+        <v>1.581258356965311</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.393263523636034</v>
@@ -40586,7 +40358,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.562453494371181</v>
+        <v>1.561057339441861</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.348645319650561</v>
@@ -40675,7 +40447,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.560388448788769</v>
+        <v>1.561235234519178</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.400793431779685</v>
@@ -40764,7 +40536,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.593459717652863</v>
+        <v>1.586855008387859</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.353245576820572</v>
@@ -40853,7 +40625,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.589536616073004</v>
+        <v>1.587300887138746</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.267187080936625</v>
@@ -40942,7 +40714,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.616533025785213</v>
+        <v>1.607736328684776</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.998014642598015</v>
@@ -41031,7 +40803,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.599482210749431</v>
+        <v>1.593225656467752</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.967656219933473</v>
@@ -41120,7 +40892,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.588881824285445</v>
+        <v>1.580473616616767</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.063652959363343</v>
@@ -41209,7 +40981,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.584144645261284</v>
+        <v>1.578601785972653</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.865802113953016</v>
@@ -41298,7 +41070,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.569593088826755</v>
+        <v>1.570111868827324</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.875811966183</v>
@@ -41387,7 +41159,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.559764569445647</v>
+        <v>1.557236085750002</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.994562322289718</v>
@@ -41476,7 +41248,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.551063259832171</v>
+        <v>1.549356712410632</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.974498027589495</v>
@@ -41565,7 +41337,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.567062810801584</v>
+        <v>1.560349080507584</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.480183502373231</v>
@@ -41654,7 +41426,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.599630426195536</v>
+        <v>1.589507971350128</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.199669667311315</v>
@@ -41743,7 +41515,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.614509030133287</v>
+        <v>1.604572245266763</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.669079790978623</v>
@@ -41832,7 +41604,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.625990936621803</v>
+        <v>1.609843478193272</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.439901618802726</v>
@@ -41921,7 +41693,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.642860592483885</v>
+        <v>1.622712657732983</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.432512865223179</v>
@@ -42010,7 +41782,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.583813249249374</v>
+        <v>1.567081421625764</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.102775125679624</v>
@@ -42099,7 +41871,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.500566654926445</v>
+        <v>1.507231706355558</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.16092462254797</v>
@@ -42188,7 +41960,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.558534772843679</v>
+        <v>1.552148197036422</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.398498094735233</v>
@@ -42277,7 +42049,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.328146062763744</v>
+        <v>1.314579662334048</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>1.419859047267066</v>
@@ -42366,7 +42138,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.327684827801505</v>
+        <v>1.31201225066327</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>1.423039182032675</v>
@@ -42455,7 +42227,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.32969427566539</v>
+        <v>1.313566933893515</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>1.420485984261379</v>
@@ -42544,7 +42316,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.333335073593229</v>
+        <v>1.315031914317585</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.422171755722927</v>
@@ -42633,7 +42405,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.336469049478697</v>
+        <v>1.316596346909587</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.421051735121218</v>
@@ -42722,7 +42494,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.340676519117084</v>
+        <v>1.322898761819436</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.417785468106053</v>
@@ -42811,7 +42583,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.343102404998475</v>
+        <v>1.323460708086959</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.420492946880448</v>
@@ -42900,7 +42672,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.342428227188707</v>
+        <v>1.321715344756425</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.42167587326237</v>
@@ -42989,7 +42761,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.337468717413361</v>
+        <v>1.31684544749679</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.416662954424517</v>
@@ -43078,7 +42850,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.33541025783661</v>
+        <v>1.314222757958236</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.416709539095982</v>
@@ -43167,7 +42939,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.33340525667657</v>
+        <v>1.311213667825281</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.417682040757729</v>
@@ -43256,7 +43028,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.332386874855275</v>
+        <v>1.312657226551125</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.420160426702239</v>
@@ -43345,7 +43117,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.354038045744609</v>
+        <v>1.33154668754794</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.40809842486094</v>
@@ -43434,7 +43206,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.369708023550386</v>
+        <v>1.337794534472619</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.380411099809674</v>
@@ -43523,7 +43295,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.562711924616637</v>
+        <v>1.512386440352758</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.318765180992173</v>
@@ -43612,7 +43384,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.689973741631829</v>
+        <v>1.63463357550493</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.315949616312925</v>
@@ -43701,7 +43473,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.687544278769259</v>
+        <v>1.635668347378753</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.540050338909966</v>
@@ -43790,7 +43562,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.683238753717994</v>
+        <v>1.634665163042515</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.744807888960664</v>
@@ -43879,7 +43651,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.68388649614773</v>
+        <v>1.638038926169104</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.730874411790619</v>
@@ -43968,7 +43740,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.685914497639649</v>
+        <v>1.641793149107809</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.589311453150269</v>
@@ -44057,7 +43829,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.684153438429587</v>
+        <v>1.642520586476519</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.694639664864971</v>
@@ -44146,7 +43918,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.678246327082405</v>
+        <v>1.643750270820157</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.37120797669489</v>
@@ -44235,7 +44007,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.671747065378194</v>
+        <v>1.640542457252873</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.486292489044168</v>
@@ -44324,7 +44096,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.670732019370756</v>
+        <v>1.639658555767533</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.48605224059013</v>
@@ -44413,7 +44185,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.676899696476335</v>
+        <v>1.641183595180266</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.372781610030326</v>
@@ -44502,7 +44274,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.685122369000675</v>
+        <v>1.651083142769506</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.847446594492094</v>
@@ -44591,7 +44363,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.689438975492788</v>
+        <v>1.655288401684106</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.680685332861525</v>
@@ -44680,7 +44452,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.688768868753306</v>
+        <v>1.649223761553383</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.646619127363472</v>
@@ -44769,7 +44541,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.680490515101958</v>
+        <v>1.644440270176879</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.740860327544633</v>
@@ -44858,7 +44630,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.663136083654938</v>
+        <v>1.632406754340413</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.438639707428747</v>
@@ -44947,7 +44719,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.651866977122562</v>
+        <v>1.619134327696199</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.587120165319482</v>
@@ -45036,7 +44808,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.658455189407112</v>
+        <v>1.620060421458811</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.12913578245673</v>
@@ -45125,7 +44897,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.66625454003378</v>
+        <v>1.625742009685971</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.500181195885689</v>
@@ -45214,7 +44986,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.662821029555552</v>
+        <v>1.622148432790851</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.416610620436421</v>
@@ -45303,7 +45075,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.660481569256644</v>
+        <v>1.622520329285902</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.299032527572205</v>
@@ -45392,7 +45164,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.66443216058972</v>
+        <v>1.623107740866012</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.174105562466156</v>
@@ -45481,7 +45253,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.672884220747422</v>
+        <v>1.635720809069851</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.403663870471002</v>
@@ -45570,7 +45342,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.6746439758268</v>
+        <v>1.634601845710867</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.14377706148041</v>
@@ -45659,7 +45431,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.670448387237691</v>
+        <v>1.626120429344084</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.363462110036028</v>
@@ -45945,7 +45717,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.442114136260026</v>
+        <v>1.462512375213062</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.010301607707107</v>
@@ -46034,7 +45806,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.447332350619893</v>
+        <v>1.470065005738423</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.949295575521424</v>
@@ -46123,7 +45895,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.464599263947847</v>
+        <v>1.485312947760538</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.887456431769136</v>
@@ -46212,7 +45984,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.484961821337769</v>
+        <v>1.507205526448339</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.023714191466236</v>
@@ -46301,7 +46073,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.493512627155084</v>
+        <v>1.516420857294236</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.02516007420238</v>
@@ -46390,7 +46162,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.52900435591055</v>
+        <v>1.548979099114557</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.86833103308812</v>
@@ -46479,7 +46251,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.682759214153152</v>
+        <v>1.679765425137057</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.335755877647288</v>
@@ -46568,7 +46340,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.729841623942995</v>
+        <v>1.719110427619532</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.627623910517716</v>
@@ -46657,7 +46429,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.741260755810788</v>
+        <v>1.729287358917204</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.717053209261256</v>
@@ -46746,7 +46518,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.743061441431367</v>
+        <v>1.733035102238239</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.910183650553314</v>
@@ -46835,7 +46607,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.736172479565187</v>
+        <v>1.729506318624948</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.581069013048511</v>
@@ -46924,7 +46696,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.719066254686339</v>
+        <v>1.7160617122777</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.623431135243738</v>
@@ -47013,7 +46785,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.727285530744909</v>
+        <v>1.723105618893382</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.632708928454668</v>
@@ -47102,7 +46874,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.723009817991809</v>
+        <v>1.721059838425618</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.625324855054107</v>
@@ -47191,7 +46963,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.751014047528106</v>
+        <v>1.748896844556314</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.068404951049733</v>
@@ -47280,7 +47052,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.748037061033197</v>
+        <v>1.74604151559336</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.762463612031033</v>
@@ -47369,7 +47141,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.749393183124326</v>
+        <v>1.749206892813279</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.041700550590229</v>
@@ -47458,7 +47230,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.757783071087538</v>
+        <v>1.759174077163502</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.824922458789603</v>
@@ -47547,7 +47319,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.758540650165383</v>
+        <v>1.760058099334818</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.173048615148395</v>
@@ -47636,7 +47408,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.759207792441333</v>
+        <v>1.759215993123734</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.15401083476784</v>
@@ -47725,7 +47497,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.717709545891899</v>
+        <v>1.721460994058097</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.81125780530153</v>
@@ -47814,7 +47586,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.711797722329919</v>
+        <v>1.715456325479523</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.859040360750207</v>
@@ -47903,7 +47675,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.699159336047185</v>
+        <v>1.702793270932033</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.779526446807</v>
@@ -47992,7 +47764,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.682829794462317</v>
+        <v>1.688930290511181</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.564328954349378</v>
@@ -48081,7 +47853,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.67530601259102</v>
+        <v>1.674160305319373</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.709499195583726</v>
@@ -48170,7 +47942,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.694171393445056</v>
+        <v>1.687987497706634</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.910443700763236</v>
@@ -48259,7 +48031,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.708963815901232</v>
+        <v>1.699721646704969</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.616662158207986</v>
@@ -48348,7 +48120,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.684899395468993</v>
+        <v>1.67558581770252</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.917713981817134</v>
@@ -48437,7 +48209,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.652465982266017</v>
+        <v>1.645377717070601</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.664706666333464</v>
@@ -48526,7 +48298,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.623158459745194</v>
+        <v>1.615023250286238</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.59234973932477</v>
@@ -48615,7 +48387,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.618440141818935</v>
+        <v>1.596991780617552</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.658796888751849</v>
@@ -48704,7 +48476,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.595275000557656</v>
+        <v>1.582346938673604</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.760519529186846</v>
@@ -48793,7 +48565,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.583066709326866</v>
+        <v>1.574153606345685</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.589014730294393</v>
@@ -48882,7 +48654,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.561701674435523</v>
+        <v>1.551088101887898</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.649996417270464</v>
@@ -48971,7 +48743,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.559576039414535</v>
+        <v>1.550627157426135</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.591442578414282</v>
@@ -49060,7 +48832,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.588924731110273</v>
+        <v>1.578022424140435</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.747953224509515</v>
@@ -49149,7 +48921,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.599572492606545</v>
+        <v>1.589960408433177</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.72110983896498</v>
@@ -49238,7 +49010,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.604526749431856</v>
+        <v>1.597329522911969</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.677117934817217</v>
@@ -49327,7 +49099,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.57399823780433</v>
+        <v>1.570200672601755</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.727999328399599</v>
@@ -49416,7 +49188,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.515917196386588</v>
+        <v>1.519228200852616</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.483697963804854</v>
@@ -49505,7 +49277,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.512033350090551</v>
+        <v>1.517960462026978</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.486717927813418</v>
@@ -49594,7 +49366,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.518944644011829</v>
+        <v>1.521864913465704</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.508862269477348</v>
@@ -49683,7 +49455,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.534587471441143</v>
+        <v>1.5311709972803</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.499209109756751</v>
@@ -49772,7 +49544,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.569046201263161</v>
+        <v>1.564028631118887</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.389422571692336</v>
@@ -49861,7 +49633,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.577815621380717</v>
+        <v>1.570267429474933</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.419918386287735</v>
@@ -49950,7 +49722,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.598074319798235</v>
+        <v>1.589868109081021</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.236239083827726</v>
@@ -50039,7 +49811,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.594588581486853</v>
+        <v>1.586019374178058</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.378261036059925</v>
@@ -50128,7 +49900,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.611562570289395</v>
+        <v>1.593938544222728</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.47856843899981</v>
@@ -50217,7 +49989,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.619389920822428</v>
+        <v>1.602745548469369</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.494709091340437</v>
@@ -50306,7 +50078,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.617321347624443</v>
+        <v>1.602824075255462</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.477244578208015</v>
@@ -50395,7 +50167,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.617799274543563</v>
+        <v>1.601794404824517</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.45702884618788</v>
@@ -50484,7 +50256,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.613664459606522</v>
+        <v>1.597191254677704</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.432242277362188</v>
@@ -50573,7 +50345,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.611186430416841</v>
+        <v>1.590906198212228</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.377822432471238</v>
@@ -50662,7 +50434,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.650228694836899</v>
+        <v>1.622305527051459</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.375711823245537</v>
@@ -50751,7 +50523,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.707941351315731</v>
+        <v>1.67786568452388</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.749627863378389</v>
@@ -50840,7 +50612,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.715837796053552</v>
+        <v>1.681950965023138</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.596088438401294</v>
@@ -50929,7 +50701,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.709424326209704</v>
+        <v>1.686320353131135</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.922630918174732</v>
@@ -51018,7 +50790,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.705094223756714</v>
+        <v>1.687167702127282</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.791600279409539</v>
@@ -51107,7 +50879,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.677653622833415</v>
+        <v>1.66747057065938</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.613598745641886</v>
@@ -51196,7 +50968,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.677449886935148</v>
+        <v>1.668710963027445</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.749655595148373</v>
@@ -51285,7 +51057,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.676502578834257</v>
+        <v>1.673864147892806</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.646822481463258</v>
@@ -51374,7 +51146,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.696444647516332</v>
+        <v>1.689860031029763</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.537668908371121</v>
@@ -51463,7 +51235,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.680096065634117</v>
+        <v>1.684212714304402</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.686382887720421</v>
@@ -51552,7 +51324,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.679354677051636</v>
+        <v>1.684204969710811</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.471858366165678</v>
@@ -51641,7 +51413,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.685415892772139</v>
+        <v>1.688372626609356</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.630222128596183</v>
@@ -51730,7 +51502,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.68342326357886</v>
+        <v>1.68607539611323</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.624860193548021</v>
@@ -51819,7 +51591,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.683538891881734</v>
+        <v>1.683604715240143</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.54490902570502</v>
@@ -51908,7 +51680,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.665964549147005</v>
+        <v>1.667296464274372</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.834844593680403</v>
@@ -51997,7 +51769,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.67524054067058</v>
+        <v>1.675748601931085</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.714394264593915</v>
@@ -52086,7 +51858,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.707599843956896</v>
+        <v>1.702018147472737</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.782623506069524</v>
@@ -52175,7 +51947,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.712076674709029</v>
+        <v>1.711307241947842</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.830227877742889</v>
@@ -52264,7 +52036,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.694258517366311</v>
+        <v>1.696834064420961</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.704385153121437</v>
@@ -52353,7 +52125,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.693760743623512</v>
+        <v>1.695828281003365</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.802980293513606</v>
@@ -52442,7 +52214,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.714038340960699</v>
+        <v>1.708632063245177</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.830199670268965</v>
@@ -52531,7 +52303,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.714047710449602</v>
+        <v>1.705909235277429</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.773312351207784</v>
@@ -52620,7 +52392,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.710946656398417</v>
+        <v>1.705163826035424</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.777533068401517</v>
@@ -52709,7 +52481,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.717907355803559</v>
+        <v>1.711325456744119</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.593645283046742</v>
@@ -52798,7 +52570,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.737871486913871</v>
+        <v>1.729486293816533</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.756839121957941</v>
@@ -52887,7 +52659,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.741815400946277</v>
+        <v>1.732992596680617</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.668784019076247</v>
@@ -52976,7 +52748,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.737319553259753</v>
+        <v>1.728407773224671</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.957201343308139</v>
@@ -53065,7 +52837,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.73353444191809</v>
+        <v>1.726612402896136</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.7531435642629</v>
